--- a/deuChatbot/research_result/results/sem_score/sem_version_2(2500_400).xlsx
+++ b/deuChatbot/research_result/results/sem_score/sem_version_2(2500_400).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D204"/>
+  <dimension ref="A1:D305"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6145,61 +6145,3617 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>GPT-4o-mini Average</t>
+          <t>Qwen2.5-7B-instruct</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>디자인조형학과의 실기시험에 대한 정보는 다음과 같습니다:
+ 모집단위 및 실기종목
+- 모집단위: 시각디자인, 산업디자인, 공예디자인
+- 실기종목: 기초디자인, 사고의 전환
+종목별 배점(비율)
+- 배점 : 700점 (70%)
+실기종목별 준비물, 실기주제, 화지크기 및 시험시간
+1. 기초디자인
+- 준비물 : 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기 : 켄트지 3절
+- 시험시간 : 5시간
+2.사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시험시간: 5시간
+이와 같은 정보는 디자인조형학과 실기시험을 준비하는 데 중요한 요소들입니다. 추가적인 정보나 문의사항이 있다면 "https://ipsi.deu.ac.kr/main.do"를 방문하시기 바랍니다.</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>디자인조형학과의 실기시험은 시각디자인, 산업디자인, 공예디자인 세 분야에서 각각 진행되며, 주요 내용은 다음과 같습니다:
+1. **모집단위 및 종목**:
+   - 모집단위: 시각디자인 / 산업디자인 / 공예디자인
+   - 종목: 기초디자인, 사고의 전환
+2. **준비물**:
+   - 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구가 필요합니다.
+3. **실기주제 및 화지크기**:
+   - **기초디자인**:
+     - 주제: 주제A와 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨
+       - 예시: 잠자리와 저울 (주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지 / 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음)
+     - 화지크기: 켄트지3절
+     - 시간: 5시간
+   - **사고의 전환**:
+     - 주제: 주제A와 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨
+       - 예시: 콜라병과 계절 (주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼 / 주제B: 바이러스, 자유, 여행, 계절, 꿈)
+     - 화지크기: 켄트지2절
+     - 시간: 5시간
+4. **주의사항**:
+   - 제공된 사물과 이미지 이외의 형상은 표현하지 마세요.
+   - 제공된 사물은 모두 1회 이상 표현해야 합니다.
+   - 제공된 사물의 색상은 변경하지 마세요.
+이러한 실기시험을 준비하면서, 다양한 주제와 상황에 대한 창의적인 접근법과 표현 능력을 키우는 것이 중요합니다. 또한 시간 관리와 효율적인 작업 방법도 함께 고려해야 합니다.</t>
         </is>
       </c>
       <c r="D202" t="n">
-        <v>0.7916440442204475</v>
+        <v>0.825152575969696</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Google Gemma-2-9b-it Average</t>
+          <t>Qwen2.5-7B-instruct</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>디자인조형학과의 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보는 다음과 같습니다:
+1.실기종목: 기초디자인
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기: 켄트지 3절
+- 시간: 5시간
+2.실기종목: 사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시간: 5시간</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>디자인조형학과의 실기 종목은 두 가지가 있습니다:
+1. **기초디자인**
+   - **준비물**: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+   - **실기주제**: 주제A와 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨으로 결정합니다. 예시로는 "잠자리와 저울"과 같은 주제가 있습니다.
+   - **화지크기**: 켄트지3절
+   - **시간**: 5시간
+2. **사고의 전환**
+   - **준비물**: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+   - **실기주제**: 주제A와 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨으로 결정합니다. 예시로는 "콜라병과 계절"과 같은 주제가 있습니다.
+   - **화지크기**: 켄트지2절
+   - **시간**: 5시간
+이러한 실기 종목들은 각각의 준비물과 시간을 고려하여 충분히 준비하고, 당일 추첨된 주제에 따라 작업을 진행해야 합니다.</t>
         </is>
       </c>
       <c r="D203" t="n">
-        <v>0.7770287555456161</v>
+        <v>0.9091651439666748</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회는 다음과 같습니다:
+배드민턴(남)
+- 한국중·고연맹회장기전국학생선수권대회
+- 대한배드민턴협회장기전국종별배드민턴선수권대회
+- 전국학교대항배드민턴선수권대회
+- 전국종별배드민턴선수권대회
+- 전국연맹종별배드민턴선수권대회
+- 전국체육대회
+- 각종국제대회
+- 주니어국제대회(국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+- 광역시·도 협회장기 종별대회
+축구(남)
+- 춘계한국고등학교축구연맹전
+- 추계한국고등학교축구연맹전
+- 대한축구협회장배전국고등학교축구대회
+- 문화체육관광부장관기전국고등학교축구대회
+- 문화체육관광부장관배전국고등학교축구대회
+- 백운기전국고등학교축구대회
+- 전국고등축구리그(권역별고교축구리그)
+- 전국고등축구리그왕중왕전
+- 무학기전국고등학교축구대회
+- 청룡기전국고등학교축구대회
+- 백록기전국고등학교축구대회
+- 금강대기전국고등학교축구대회
+- 대통령금배전국고등학교축구대회
+- 금석배전국고등학생축구대회
+- 부산MBC전국고등학생축구대회
+- K리그 U18 챔피언십
+- K리그 U18 챔피언십왕중왕전</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 경기지도학과 모집종목별 인정대회에서는 다음과 같은 대회들을 인정합니다:
+1. 배드민턴(남):
+- 한국중·고연맹회장기전국학생선수권대회
+- 대한배드민턴협회장기전국종별배드민턴선수권대회 
+- 전국학교대항배드민턴선수권대회
+- 전국종별배드민턴선수권대회
+- 전국연맹종별배드민턴선수권대회
+- 전국체육대회
+- 각 종목별 국제대회 (국가대표팀, 주니어팀 소속으로 참가한 대회만 인정)
+2. 축구(남):
+-춘계한국고등학교축구연맹전
+-추계한국고등학교축구연맹전
+-대한축구협회장배전국고등학교축구대회
+-문화체육관광부장관기전국고등학교축구대회
+-문화체육관광부장관배전국고등학교축구대회
+-백운기전국고등학교축구대회
+-전국고등축구리그(권역별고교축구리그)
+-전국고등축구리그왕중왕전
+-무학기전국고등학교축구대회
+-청룡기전국고등학교축구대회
+-백록기전국고등학교축구대회
+-금강대기전국고등학교축구대회
+-대통령금배전국고등학교축구대회
+-금석배전국고등학생축구대회
+-K리그 U18 챔피언십
+-K리그 U18 챔피언십왕중왕전
+이러한 대회의 성적을 기반으로 학생들의 실력을 평가합니다.</t>
+        </is>
+      </c>
+      <c r="D204" t="n">
+        <v>0.957280158996582</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험 주제는 다음과 같습니다:
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+시험 당일에는 주제A와 주제B에서 각각 1개씩 선정하여 연결된 주제를 추첨하게 됩니다. 예시로는 "잠자리와 저울"이 있습니다.</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 디자인조형학과의 기초디자인 실기시험에서는 주제A와 주제B 중 각각 하나씩을 선택하여 연결된 주제를 작성해야 합니다. 제공된 주제들은 다음과 같습니다:
+주제A:
+- 잠자리
+- 무궁화
+- 피망 (灯笼)
+- 고양이 
+- 양파
+- 달팽이
+- 오렌지
+주제B:
+- 악보
+- 줄자
+- 스카치테이프
+- 자물쇠
+- 반코팅장갑
+- 저울
+- 얼음
+각 주제는 당일에 추첨되어 선택됩니다. 준비할 때는 제공된 모든 주제를 고려하여 다양한 연결 방식을 생각해보세요.</t>
+        </is>
+      </c>
+      <c r="D205" t="n">
+        <v>0.9379855394363403</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>아니요. 학생부 교과 전형에서는 출결 점수가 반영되지 않습니다.</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>2024학년도 동시에 실시되는 학생부교과 전형에서는 출결 점수가 반영됩니다. 
+출결 점수는 다음과 같이 반영됩니다:
+- 출결이 0~2일인 경우 : 120점
+- 출결이 3~6일인 경우 : 90점 
+- 출결이 7~12일인 경우 : 60점
+- 출결이 13~20일인 경우 : 30점
+- 출결이 21일 이상인 경우 : 0점
+따라서 학생부교과 전형에서는 출결도 중요한 평가 요소로 고려됩니다.</t>
+        </is>
+      </c>
+      <c r="D206" t="n">
+        <v>0.5590267181396484</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 17명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>17명을 모집합니다. 
+이 정보는 다음과 같은 문단에서 얻었습니다:
+"전형별 모집단위별 모집인원에서 단과대학은 인문사회과학대학이며, 모집단위은 국어국문학과 - 교직이며, 정원 내 모집인원은 45이며, &lt;가군&gt;의 일반 학생은 17이며, ... 등록금 고지서에 기재"</t>
+        </is>
+      </c>
+      <c r="D207" t="n">
+        <v>0.882365345954895</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 인문사회과학대학 영어영문학과의 경우, 다군 일반학생 전형을 통해 총 28명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>28명을 모집합니다.
+인문사회과학대학의 영어영문학과 - 교직 분야는 다군 수능(일반학생전형) 모집단위로, 정원 내 모집 인원이 28명이라고 명시되어 있습니다.</t>
+        </is>
+      </c>
+      <c r="D208" t="n">
+        <v>0.7814908027648926</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과의 경우, 나군 일반학생 전형을 통해 총 22명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>22명입니다. 의료보건생활대학 간호학과 나군 일반 학생 전형의 모집 인원은 22명입니다.</t>
+        </is>
+      </c>
+      <c r="D209" t="n">
+        <v>0.7984074354171753</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>수능 영어영역 등급에 따른 점수는 다음과 같습니다:
+- 1등급: 139점
+- 2등급: 131점
+- 3등급: 123점
+- 4등급: 115점
+- 5등급: 107점
+- 6등급: 99점
+- 7등급: 91점
+- 8등급: 83점
+- 9등급: 75점</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 수능 영어 등급에 따른 점수는 다음과 같습니다:
+- 등급 1 : 139점
+- 등급 2 : 131점 
+- 등급 3 : 123점
+- 등급 4 : 115점
+- 등급 5 : 107점
+- 등급 6 : 99점
+- 등급 7 : 91점
+- 등급 8 : 83점
+- 등급 9 : 75점</t>
+        </is>
+      </c>
+      <c r="D210" t="n">
+        <v>0.8472718000411987</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>아니요, 예술고 학생은 나군 학생부교과 농어촌학생전형으로 지원할 수 없습니다. 지원자격에 따르면 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 예, 예술고 학생은 나군 학생부교과 농어촌학생전형으로 지원 가능합니다.
+관련 정보:
+- **고교유형별 지원자격**에서 나군 (농어촌학생전형)의 경우:
+  - 일반고는 지원 가능
+  - 자율고는 지원 가능
+  - 특수목적고의 과학고, 국제고, 외국어고는 지원 가능
+  - 특수목적고의 예술고는 지원 불가능 (단, 이 부분은 예외적으로 지원이 가능한 경우도 있으므로 확인 필요)
+  - 특수목적고의 체육고는 지원 가능
+  - 특성화고의 특성(직업)은 지원 가능
+  - 특성화고의 특성(대안)은 지원 가능
+  - 영재학교는 지원 가능
+  - 기타의 학력인정고는 지원 가능
+  - 기타의 방송통신고는 지원 불가능
+  - 기타의 각종학교는 지원 가능
+  - 검정고시는 지원 불가능
+  - 외국고는 지원 불가능
+따라서 예술고 학생은 일반고, 자율고, 체육고, 특성화고(특성: 직업), 기타의 학력인정고 등에서 지원이 가능합니다. 하지만 특수목적고의 예술고에서는 지원이 불가능하므로 주의해야 합니다.
+추가적으로, 지원 자격에 대한 세부 사항이나 변경사항은 공식 홈페이지를 확인하는 것이 가장 정확할 것입니다.</t>
+        </is>
+      </c>
+      <c r="D211" t="n">
+        <v>0.9186340570449829</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점은 다음과 같습니다:
+- 기록: 218~221 cm
+- 배점: 275점</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>4등급의 레저스포츠학과 여자 제자리 멀리뛰기 기록은 남은 268～271cm, 여은 218~221cm이며, 배점은 275점입니다.</t>
+        </is>
+      </c>
+      <c r="D212" t="n">
+        <v>0.8113441467285156</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>경기지도학과의 출결 반영 비율은 12%입니다.</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 경기지도학과에서는 출결의 반영 비율이 12%입니다. 이는 전형요소 반영비율에서 학생부 교과, 출결, 서류 등의 요소 중 출결에 대한 부분으로, 전체 반영 비율 중에서 12%를 차지하고 있습니다.</t>
+        </is>
+      </c>
+      <c r="D213" t="n">
+        <v>0.5669850707054138</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="D214" t="n">
+        <v>0.9864264130592346</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>2024. 01. 17.(수) 입니다.</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과의 실기고사는 2024년 1월 17일(수)에 진행됩니다.
+추가 정보:
+- 모집단위: 시각디자인 / 산업디자인 / 공예디자인
+- 실기종목: 기초디자인, 사고의 전환 중 선택 (택1)
+- 종목별 배점(비율): 기초디자인 700점 (70%), 사고의 전환 650점 (65%)
+실기고사 일정을 확인하시려면 [입학 안내 홈페이지](http://ipsi.deu.ac.kr) 또는 [UWAY APPLY 사이트](http://www.uwayapply.com)를 참조해 주세요.</t>
+        </is>
+      </c>
+      <c r="D215" t="n">
+        <v>0.6313183903694153</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>수능 최저 학력 기준은 없습니다.</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>提供的信息中没有直接提到东义大学2024学年应用化学专业的具体录取标准，包括最低分数要求。根据您给出的信息，可以确定的是：
+1. 应用化学专业属于工科学院（공과대학）。
+2. 在2024年的招生计划中，该专业有56个名额。
+但是，关于具体的最低录取分数线（수능 최저기준），信息中并没有明确列出。通常情况下，大学会在其官方网站上公布详细的招生简章和最低录取标准。
+建议您直接访问东义大学的官方网站 [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do) 查看最新的招生公告或联系学校的招生办公室以获取准确的信息。</t>
+        </is>
+      </c>
+      <c r="D216" t="n">
+        <v>0.321019321680069</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 다음과 같습니다:
+1. 심리학과
+2. 스마트항만물류학과
+3. 창업투자경영학과
+4. 라이프융합학부 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+5. 경기지도학과</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 학과로는 다음과 같습니다:
+1. 심리학과 (신설)
+2. 스마트항만물류학과 (신설) 
+3. 창업투자경영학과 (신설)
+4. 라이프융합학부 (신설)(스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+위와 같이 2024학년도에 동의대학교에서는 총 4개의 신설 학과/계열을 추가하였습니다.</t>
+        </is>
+      </c>
+      <c r="D217" t="n">
+        <v>0.927831768989563</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 서류 70%, 면접 30%입니다.</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 다음과 같습니다:
+- 서류: 70%
+- 면접: 30%
+이 비율로 지원자의 학업역량과 전공적합성을 평가하게 됩니다.</t>
+        </is>
+      </c>
+      <c r="D218" t="n">
+        <v>0.9629498720169067</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 다음 모집단위에서 수능 가산점을 적용합니다:
+- 의료·보건·생활대학
+- 공과대학
+- ICT융합공과대학
+이들 모집단위에서 수학(미적분 또는 기하)을 응시한 경우, 수학 취득 표준점수의 10%를 가산점으로 부여합니다.</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교에서는 공과대학, ICT융합공과대학 모집단위에 수학(미적분 또는 기하) 응시자의 경우 수학 표준점수에 10% 가산점을 부여합니다.
+이 정보는 "수능 반영영역 및 가산점" 섹션에서 확인할 수 있습니다:
+- 모집단위은 공과대학, ICT융합공과대학 모집단위이며,
+- 수능 반영영역 및 잔영비율은 국어(화법과작문 또는 언어와매체) 25% + 수학(확률과통계 또는 미적분 또는 기하) 25% + 영어 25% + 탐구(사회탐구 또는 과학탐구 또는 직업탐구 - 2개 과목 합) 25%이며,
+- 가산점은 수학(미적분 또는 기하) 응시자 : 수학 취득 표준점수의 10% 가산점이다.</t>
+        </is>
+      </c>
+      <c r="D219" t="n">
+        <v>0.9108741879463196</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 가군 수능(일반학생전형)에서는 수능 성적을 100% 반영합니다. 자세한 수능 성적 반영 방법은 '38페이지 Ⅴ. 수능성적 반영방법'을 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 가군에서는 수능 성적을 다음과 같이 반영합니다:
+1. **모집단위**: 전 모집단위 (레저스포츠학과, 태권도학과 제외)
+2. **반영 영역 및 비율**:
+   - 국어(화법과작문 또는 언어와매체) : 25%
+   - 수학(확률과통계 또는 미적분 또는 기하) : 25%
+   - 영어 : 25%
+   - 탐구 (사회탐구 또는 과학탐구 또는 직업탐구 중 2개 과목 합) : 25%
+3. **가산점**: 가산점이 없습니다.
+따라서, 가군에서는 수능 성적의 네 가지 영역을 각각 25%씩 반영하며, 추가적인 가산점은 적용되지 않습니다.</t>
+        </is>
+      </c>
+      <c r="D220" t="n">
+        <v>0.8636048436164856</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기고사는 2024년 1월 16일(화)에 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기고사는 2024년 1월 16일(화)에 진행됩니다. 
+참조 정보:
+전형일정에서 내용은 &lt;가&gt;군 실기고사 레저스포츠학과 태권도학과이며, 일정은 2024. 01. 16.(화)입니다.</t>
+        </is>
+      </c>
+      <c r="D221" t="n">
+        <v>0.9440528154373169</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군 수능(일반학생전형) 전형에서는 한의예과, 디자인조형학과와 체육학과, 경기지도학과가 제외됩니다.</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 수능(일반학생전형) 전형에서 디자인조형학과, 체육학과, 레저스포츠학과, 태권도학과는 제외됩니다. 
+이러한 결론은 다음과 같은 정보에서 도출되었습니다:
+- 나군 수능(일반학생전형) 전형료 항목에서 "모집단위은 전 모집단위(디자인조형학과, 체육학과, 레저스포츠학과, 태권도학과 제외)"라고 명시되어 있습니다.
+- 이는 나군 수능(일반학생전형)에서 디자인조형학과, 체육학과, 레저스포츠학과, 태권도학과가 전형에서 제외된다는 것을 의미합니다.</t>
+        </is>
+      </c>
+      <c r="D222" t="n">
+        <v>0.9591066241264343</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2024학년도 동의대의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. </t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 다군 전형에서는 수능 최저기준이 적용되지 않습니다.
+이는 "전형요소 반영비율" 섹션에서 확인할 수 있습니다:
+- 다군 수능(일반학생전형) 전 모집단위에 대한 정보에서, 
+- "수능최저기준" 항목은 "수능최저기준 없음"으로 표시되어 있습니다.
+따라서 동의대학교 2024학년도 다군 전형에서는 수능 최저기준이 적용되지 않습니다.</t>
+        </is>
+      </c>
+      <c r="D223" t="n">
+        <v>0.8483859300613403</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 학부에서 학과로 분리된 학과는 다음과 같습니다:
+1. 보육가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+3. 정보경영학부 → 경영정보학과, e비즈니스학과
+4. 부동산금융자산경영학과 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부 → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간시스템디자인공학, 제품디자인공학) → 인간공학과, 제품디자인공학과
+11. 산업융합시스템공학부(산업ICT기술공학, 산업경영빅데이터공학) → 산업경영빅데이터공학과
+12. 창의소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학) → 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)
+13. 전기전자통신공학부(전기공학, 전자공학, 정보통신공학) → 전기공학과, 전자공학과
+14. 음악학과(성악, 피아노, 관현타악, 실용음악뮤지컬, 뉴미디어작곡) → 음악학과(클래식, 실용음악, 뉴미디어작곡)</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서는 다음과 같은 학과가 학부에서 학과로 분리되었습니다:
+1. 보육·가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+3. 정보경영학부(경영정보학, e비즈니스학) → 경영정보학과, e비즈니스학과
+4. 부동산금융·자산경영학과 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부(기계공학, 로봇·자동화공학, 자동차공학) → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간·시스템디자인공학, 제품디자인공학) → 인간공학과, 제품디자인공학과
+위와 같이 2024년도에 동의대학교에서는 여러 학과가 학부에서 학과로 분리되었습니다.</t>
+        </is>
+      </c>
+      <c r="D224" t="n">
+        <v>0.9904575347900391</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 전형일정에서 원서접수 마감일은 2024년 1월 6일(토) 18시입니다.</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 전형일정에 따르면, 원서 접수(인터넷)의 마감일은 2024년 1월 6일(토)까지이며, 접수 마감 시간은 18시까지입니다.
+따라서 원서접수 마감일은 **2024년 1월 6일(토) 18시**까지입니다.</t>
+        </is>
+      </c>
+      <c r="D225" t="n">
+        <v>0.9314818382263184</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도에 전형 요소 변화가 있는 전형은 다음과 같습니다:
+1.  학생부종합(성인학습자전형):
+ - 2023학년도: 특성화고 등을 졸업한 재직자
+ - 2024학년도: 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자
+2.  학생부종합(조기취업형계약학과전형):
+  - 2023학년도: 서류(학생부) 70% + 면접 30%
+  - 2024학년도: 서류(학생부) 60% + 면접 40%
+3. 실기/실적(경기실적우수자전형):
+  - 2023학년도: 학생부교과(출결 포함) 30% + 서류(실적) 70%
+  - 2024학년도: 학생부교과 18% + 출결 12% + 서류(실적) 70%
+4. 반영학기(학생부교과, 실기/실적 위주전형):
+ - 2023학년도: 
+  - 고교 졸업예정자 : 1학년 1학기~3학년 1학기
+  - 고교 졸업자 : 1학년 1학기~3학년 2학기
+ - 2024학년도: 
+  -고교 졸업(예정)자 : 1학년 1학기~3학년 1학기
+5. 반영과목(학생부교과, 실기/실적 위주전형):
+ - 2023학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어교과 중 석차등급 상위 8과목
+   -8과목을 제외한 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 4과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 2등급, B: 4등급, C: 6등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 미반영
+- 2024학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 1등급, B: 3등급, C: 5등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 반영교과 전과목 반영
+</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 전형 요소 변화가 있는 주요 전형들은 다음과 같습니다:
+1. **학생부종합 평가영역 변경**
+   - 2023학년도: 인성 | 학업역량 | 전공적합성
+   - 2024학년도: 공동체역량 | 학업역량 | 전공적합성
+2. **전형요소 반영비율 변경**
+   - 학생부 교과: 
+     - 2023학년도: 8과목 중 석차등급 상위 8과목 4과목
+     - 2024학년도: 12과목 중 석차등급 상위 12과목
+   - 출결: 
+     - 2023학년도: 없음 (0%)
+     - 2024학년도: 12%
+   - 서류: 
+     - 2023학년도: 70%
+     - 2024학년도: 60%
+3. **전형요소 반영비율 변경 (실기/실적 위주 전형)**
+   - 실기: 
+     - 2023학년도: 없음 (0%)
+     - 2024학년도: 70%
+   - 수능: 
+     - 2023학년도: 30%
+     - 2024학년도: 30%
+4. **전형명 및 지원자격 변경**
+   - 학생부종합(성인학습자(정원내)전형): 
+     - 2023학년도: 특성화고 등을 졸업한 재직자
+     - 2024학년도: 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자
+5. **전형요소 반영비율 변경 (학생부교과 위주 전형)**
+   - 면접: 
+     - 2023학년도: 40%
+     - 2024학년도: 30%
+이러한 변화들은 주로 학생부와 실적, 출결 등의 요소를 더 강화하고 있으며, 특히 학생부의 중요성을 더욱 높이고 있습니다.</t>
+        </is>
+      </c>
+      <c r="D226" t="n">
+        <v>0.9710371494293213</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기/실적 전형에서 실기 비중은 70%입니다.</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기/실적 전형에서 실기 비중은 70%입니다.
+이 정보는 "가군 수능(일반학생전형), 실기/실적(일반학생전형) 전형요소 반영비율" 섹션에서 확인할 수 있습니다. 해당 내용에 따르면, 가군 실기/실적(일반학생전형) 모집단위의 경우, 레저스포츠학과와 태권도학과는 수능 30%, 실기 70%로 반영됩니다.
+따라서, 동의대학교 2024학년도 가군 실기/실적 전형에서 실기 부분은 전체 점수 중 70%를 차지합니다.</t>
+        </is>
+      </c>
+      <c r="D227" t="n">
+        <v>0.9211119413375854</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 라이프융합학부의 세부 전공은 다음과 같이 구성되어 있습니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 라이프융합학부는 세부 전공으로 다음과 같이 구성되어 있습니다:
+- 스타트업 창업 투자학
+- 뷰티 비즈니스학 
+- 라이프 생활 문화학
+이 학부는 미래 사회에서 요구되는 다양한 산업 분야와 연계하여 인재를 양성하기 위해 설립되었습니다. 세부 전공별로 특화된 교육 프로그램을 제공하여 학생들이 실용적인 기술과 지식을 습득할 수 있도록 하고 있습니다.
+이러한 신설학부는 동의대학교가 미래 산업 트렌드를 반영하고, 다양한 산업 분야와 연계된 교육 프로그램을 통해 학생들의 취업 역량을 강화하기 위한 노력의 일환으로 이루어졌습니다.</t>
+        </is>
+      </c>
+      <c r="D228" t="n">
+        <v>0.9526501297950745</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 다음과 같습니다:
+1. 체육학과
+2. 레저스포츠학과</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 실기고사를 진행하는 학과는 다음과 같습니다:
+1. 레저스포츠학과 (가군 실기/실적(일반학생전형))
+2. 태권도학과 (가군 실기/실적(일반학생전형))
+이 두 학과에서만 실기고사가 진행되며, 다른 학과에서는 수능 성적이 전부입니다.</t>
+        </is>
+      </c>
+      <c r="D229" t="n">
+        <v>0.9504921436309814</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도 실기/실적 위주 전형 지원 가능한 학과는 다음과 같습니다:
+1. 레저스포츠학과
+2. 태권도학과
+3. 디자인조형학과
+4. 체육학과
+5. 경기지도학과 </t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 실기/실적 위주 전형을 지원할 수 있는 학과는 다음과 같습니다:
+1. 디자인조형학과 (시각디자인, 산업디자인, 공예디자인)
+2. 체육학과
+이 두 학과의 경우, 실기/실적 위주 전형으로 지원할 수 있습니다.
+추가 정보:
+- 해당 전형은 1월 17일에 실기고사를 치릅니다.
+- 대기실 및 입실시간 안내는 1월 12일 오후 2시 이후 입학안내 홈페이지에서 확인 가능합니다.</t>
+        </is>
+      </c>
+      <c r="D230" t="n">
+        <v>0.9125490188598633</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>동의대학교의 라이프융합학부는 신설된 학부로, 다음과 같은 전공을 제공합니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>2024년도 동의대학교 미래융합대학 라이프융합학부는 다음과 같은 전공을 신설하여 제공합니다:
+1. 스타트업 창업 투자학 (스타트업창업투자학)
+2. 뷰티 비즈니스학 (뷰티비즈니스학) 
+3. 라이프 생활 문화학 (라이프생활문화학)
+이러한 세 가지 전공으로 구성된 신설 학부는 다양한 삶의 질 향상과 관련된 분야를 다루게 됩니다.</t>
+        </is>
+      </c>
+      <c r="D231" t="n">
+        <v>0.6290545463562012</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>특수목적고등학교 출신 학생은 일반학생전형으로 지원할 수 있습니다. 다만, 농어촌학생전형의 경우 마이스터고를 제외한 특수목적고등학교 출신자는 지원할 수 없습니다. 일반학생전형에 대한 자세한 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>你是韩国学生吗？根据提供的信息，如果你是特殊教育高中（特수목적고등학교）的学生，并且符合以下条件之一，则可以申请东义大学的一般学生入学考试：
+1. 科学高中 (과학고)
+2. 国际高中 (국제고)
+3. 外语高中 (외국어고)
+你需要满足的条件是：
+- 完成特殊教育高中的专业课程
+- 或者完成一年以上的职业教育训练课程
+因此，如果你属于上述类别之一，并且完成了相应的课程要求，那么你是可以申请东义大学的一般学生入学考试的。
+如果以上信息不足以回答你的问题，请提供更多详细信息。你可以访问 [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do) 以获取更多具体的信息和指导。</t>
+        </is>
+      </c>
+      <c r="D232" t="n">
+        <v>0.4748687744140625</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 인문사회과학대학의 중어중국학과와 공과대학 신소재공학과로, 나군 일반학생 전형에서 32명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 전형에서 가장 많이 모집하는 학과를 확인해보겠습니다.
+1. **금융경영학과** - 정원 내 모집 인원은 32명입니다.
+2. **응용화학과** - 정원 내 모집 인원은 26명입니다.
+3. **바이오의약공학과** - 정원 내 모집 인원은 21명입니다.
+위에서 볼 수 있듯이, 가장 많이 모집하는 학과는 **금융경영학과**로 32명을 모집하고 있습니다.</t>
+        </is>
+      </c>
+      <c r="D233" t="n">
+        <v>0.9354931712150574</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>마이스터고를 제외한 특수목적고등학교 출신자는 동의대 학생부교과 농어촌학생전형으로 지원할 수 없습니다.  지원 자격에 따르면, 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>你是韩国学生吗？根据提供的信息，如果你是特殊教育高中（特수목적고등학교）的学生，并且满足以下条件之一，则有可能符合东义大学学生部综合（农村学生类型）的申请资格：
+1. **6年制课程**：
+   - 在农村（邑·面）地区中学和高中期间全程就读并居住。
+2. **12年制课程**：
+   - 无论父母是否在农村居住，你本人在农村（邑·面）地区的初中、高中期间全程就读并居住。
+具体来说，你需要提供以下文件：
+- 对于6年制课程： 
+  - 支持者本人的亲属关系证明书1份
+  - 支持者本人及其父母的居民登记副本各1份（总计3份）
+  - 初中学生生活记录簿1份（教育机构、公共机关、自助服务终端机或互联网政府24系统提供）
+  - 高中学生生活记录簿1份（对于未在线提供的学校及未同意的学生，需要纸质版）
+- 对于12年制课程：
+  - 支持者本人的居民登记副本1份
+  - 小学学生生活记录簿1份
+  - 初中学生生活记录簿1份
+  - 高中学生生活记录簿1份（对于未在线提供的学校及未同意的学生，需要纸质版）
+如果你符合上述条件并准备了相应的文件，则可以尝试申请东义大学的学生部综合（农村学生类型）。
+建议你访问 [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do) 获取更多详细信息和具体要求。</t>
+        </is>
+      </c>
+      <c r="D234" t="n">
+        <v>0.4504847824573517</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부의 최초합격자와 최종등록자의 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균을 볼 수 있습니다.
+- **최초합격자**에서 소프트웨어공학부의 모집단위는 두 가지로 나뉘어져 있으며, 각각의 평균은 다음과 같습니다:
+  - 한의예과(수학&lt;미적분/기하&gt;): 396.29
+  - 한의예과(수학&lt;확률과통계&gt;): 398.71 (이 값은 제공된 데이터에서 찾을 수 없으므로, 이전 값인 396.29를 사용하겠습니다.)
+- **최종등록자**에서 소프트웨어공학부의 모집단위는 다음과 같습니다:
+  - 최초합격자의 두 가지 평균 값을 기반으로 추정할 수 있습니다.
+    - 317.87 (이 값은 제공된 데이터에서 찾을 수 있음)
+따라서, 2024학년도 소프트웨어공학부의 합격자 평균 성적은 **최종등록자의 평균**인 **317.87**입니다.
+만약 최초합격자의 두 가지 모집단위를 모두 고려하려면, 두 값을 평균내는 것이 적절할 수 있습니다:
+\[ \frac{396.29 + 398.71}{2} = 397.50 \]
+따라서, 소프트웨어공학부 합격자들의 평균 성적은 **317.87**입니다.</t>
+        </is>
+      </c>
+      <c r="D235" t="n">
+        <v>0.7258127927780151</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>2024학년도 ICT융합공과대학 소프트웨어공학부 최초 합격자의 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 **330.11**입니다.</t>
+        </is>
+      </c>
+      <c r="D236" t="n">
+        <v>0.809882640838623</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정은 다음과 같습니다:
+ - 최초 합격자 발표: 2024년 2월 2일(금) 14:00
+ - 충원 합격자 1차 발표: 2024년 2월 14일(수) 09:00
+ - 충원 합격자 2차 발표: 2024년 2월 15일(목) 09:00
+ - 충원 합격자 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지
+ 모든 발표는 홈페이지를 통해 개별 조회해야 합니다.</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>2024학년도 입시에서는 합격자 발표 일정이 다음과 같습니다:
+- 최초 합격자 발표는 2024년 2월 2일(금) 14:00입니다.
+- 이어서 2024년 2월 7일(수)부터 2월 13일(화)까지 최초 합격자 등록이 이루어집니다.
+- 그 다음으로, 충원 합격자는 다음과 같이 발표 및 등록됩니다:
+  - 2024년 2월 14일(수) 9:00에 1차 충원 합격자 발표
+  - 2024년 2월 14일(수) 9:00부터 16:00까지 1차 충원 합격자 등록
+  - 2024년 2월 15일(목) 9:00에 2차 충원 합격자 발표
+  - 2024년 2월 15일(목) 9:00부터 16:00까지 2차 충원 합격자 등록
+  - 마지막으로, 3차 이후 충원 합격자는 개별 전화 통보를 통해 발표되며, 이 시점은 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지입니다.
+따라서 합격자 발표는 최초로 2024년 2월 2일(금)이며, 이후 충원 합격자는 여러 차례에 걸쳐 이루어집니다.</t>
+        </is>
+      </c>
+      <c r="D237" t="n">
+        <v>0.9720777869224548</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>나군 평생학습자전형, 성인학습자(정원내)전형, 성인학습자(정원외)전형, 재직자전형, 조기취업형계약학과전형의 면접고사 일정은 2024. 01. 20.(토)입니다.</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>2024년 1월 17일(수)에 실기고사가 있습니다. 이 날짜는 입학 안내 홈페이지에서 대기실 및 입실 시간을 확인할 수 있으므로, 해당 일정을 참고하시면 됩니다.
+면접고사는 2024년 1월 17일(수)에 진행되며, 대기실 및 입실 시간은 2024년 1월 12일(금) 오후 2시 이후에 입학 안내 홈페이지에서 확인할 수 있습니다.
+만약 추가로 도움이 필요하시면 [입학정보 홈페이지](http://ipsi.deu.ac.kr)를 참조해 주세요.</t>
+        </is>
+      </c>
+      <c r="D238" t="n">
+        <v>0.813576340675354</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>동의대 한의예과의 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>从提供的信息来看，并没有直接提到韩医学部（한의예과）的具体最低学历标准。不过，根据上下文和其他相关信息可以推测：
+1. 对于一般学生入学（가군 수능(일반학생전형)），韩医学部的最低标准是：
+   - 无需考虑学生的学业成绩
+   - 不需要参加面试或能力测试
+2. 在其他类型的招生中，如农林水产部的学生（나군 학생부교과(농어촌학생전형) - 정원외）和成人教育学生（나군 학생부종합(성인학습자전형)），对学历的要求是：
+   - 高中毕业或同等学力
+   - 年龄在30岁以上
+因此，可以推断韩医学部的一般最低入学要求可能是高中毕业或同等学力。但具体的标准可能因招生类型和年份的不同而有所变化。
+为了获得最准确的信息，建议直接咨询学校招生办公室或查看最新的官方招生简章。</t>
+        </is>
+      </c>
+      <c r="D239" t="n">
+        <v>0.3343009054660797</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>동의대학교는 수능 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>2024학년도에 대한 정보를 바탕으로, 제공된 내용에서는 특정 전형별로 수능 최저학력 기준이 명시되어 있지 않습니다. 
+특히 "전형요소 반영비율" 섹션에서 다음과 같이 언급되어 있습니다:
+- 가군 수능(일반학생전형) 전 모집단위: 수능최저기준 없음
+- 나군 수능(일반학생전형) 전 모집단위: 수능최저기준 없음
+- 다군 수능(일반학생전형) 전 모집단위: 수능최저기준 없음
+따라서, 현재 제공된 정보로는 특정 전형별로 수능 최저학력 기준이 없다고 볼 수 있습니다. 하지만 각 학과나 전형별로 개별적으로 수능 최저학력 기준을 설정할 수도 있으므로, 정확한 정보를 얻기 위해서는 해당 대학의 공식 웹사이트(https://ipsi.deu.ac.kr/main.do)를 참조하거나 입학처에 직접 문의하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D240" t="n">
+        <v>0.6328768730163574</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>2024학년도의 충원합격자 발표 일정은 2월 14일(수) 09:00부터 시작됩니다. 이날 이후에도 추가적으로 충원합격자가 발생할 경우, 그에 따른 발표는 계속될 수 있습니다.
+관련된 정보를 정리하면 다음과 같습니다:
+- **일시**: 2024년 2월 14일(수) 09:00
+- **내용**: 충원 합격자 1차 (인터넷) 발표
+- **비고**:
+  - *발표*: 홈페이지에서 개별 조회 가능
+  - *고지서 교부*: 홈페이지에서 출력 또는 입학관리팀에서 수령 가능
+  - *등록장소*: 학교 지정은행(등록금 고지서에 기재)
+이 정보를 참고하여 해당 일정을 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D241" t="n">
+        <v>0.9430806040763855</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>2024. 02. 15.(목) 09:00부터 추가합격자 발표가 시작됩니다.
+추가합격자 발표 일정은 다음과 같습니다:
+- **일시:** 2024. 02. 15.(목) 09:00
+- **내용:** 3차 추가합격자 발표 및 등록
+- **등록 기간:** 2024. 02. 15.(목) 09:00~16:00
+추가합격자 발표 이후에도 합격자 발표는 계속될 수 있으므로, 해당 날짜 이후에도 홈페이지를 통해 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D242" t="n">
+        <v>0.9065325260162354</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>2024년 1월 2일(화) 이후 수시모집 등록자의 등록(입학) 포기로 인한 결원은 정시 일반학생전형 모집인원으로 이월하여 추가로 합격자를 선발합니다. 정시모집 모집단위별 등록인원이 모집인원에 미달된 경우에는 그 인원을 추가모집으로 이월하여 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>提供的信息中并没有直接提到是否进行额外招生（추가모집）的内容。为了给出准确的回答，需要具体查看相关招生简章或官方通知中的详细规定。
+如果您想了解具体的额外招生信息，建议访问以下网站获取最新和最准确的信息：
+https://ipsi.deu.ac.kr/main.do
+或者您可以直接联系学校招生办公室进行咨询。</t>
+        </is>
+      </c>
+      <c r="D243" t="n">
+        <v>0.3545250296592712</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대한 정보는 다음과 같습니다.  
+모집단위 및 모집인원
+  - 미래융합대학 라이프융합학부
+  - 전형명: 학생부종합(평생학습자전형)
+  - 모집인원: 11명
+ 지원자격
+ - 평생학습자전형: 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자
+전형요소 반영 비율
+ - 서류: 70%
+ - 면접: 30%
+ 제출서류
+ - 고교 졸업(예정)자:
+  - 고교 학교생활기록부 1부 (학생부 온라인 제공 동의자는 제출할 필요 없음)
+- 검정고시출신자:
+  - 검정고시 합격증서 사본 또는 합격증명서 1부
+  - 검정고시 성적증명서 1부 (온라인 제공 동의자는 제출할 필요 없음)
+  - 학교생활기록부 대체 서류 (제출여부 선택 가능)
+ - 외국고교 졸업(예정)자:
+  - 공증받은 외국고교 졸업(예정)증명서 1부
+  - 공증받은 외국고교 성적증명서 1부
+  - 학교생활기록부 대체 서류(제출여부 선택 가능)
+  - 외국어로 작성된 경우, 원본과 공증받은 한국어 번역본을 함께 제출
+  - 고교 졸업(예정)증명서, 성적증명서는 해당국가의 정부기관으로부터 아포스티유 확인서 또는 해당국가 주재 한국영사관에서 영사 확인을 발급받아 제출(단, 교육부에서 인정한 재외한국학교는 영사확인 없이 증명서 원본 제출 가능)
+  - 만점이 명시된 고교성적 체계자료를 성적증명서 뒤에 첨부
+  - 최종 등록자 중 외국고교 졸업예정자는 졸업 이후 졸업증명서(아포스티유 확인서 또는 영사확인 
+발급)를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.
+제출기간 및 장소
+ - 제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+ - 제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+ 추가사항
+ - 검정고시출신자 및 외국고교 졸업(예정)자의 제출서류 중 학교생활기록부 대체 서류는 선택 제출서류로 ‘학교생활기록부 대체 서류’ 양식을 참조.
+ 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>평생학습자전형은 대학에서 성인 학습자를 위한 특별한 입학 전형 중 하나입니다. 주요 내용을 요약하면 다음과 같습니다:
+1. 지원 자격:
+   - 고교 졸업(예정)자, 검정고시 출신자 또는 외국고교 졸업(예정)자를 대상으로 합니다.
+   - 재직자나 평생학습을 진행한 경험이 있는 성인 학습자를 위한 전형입니다.
+2. 모집 단과대학 및 계열:
+   - 미래융합대학의 인문사회계열, 라이프융합학부
+   - 부동산자산경영학부 등 다양한 분야
+3. 제출 서류:
+   - 고교 졸업(예정)자는 학교생활기록부 1부를 제출합니다.
+   - 검정고시 출신자는 검정고시 합격증서 사본, 성적증명서 등을 제출합니다.
+   - 외국고교 졸업(예정)자는 공증받은 외국고교 졸업증명서와 성적증명서를 제출해야 합니다.
+4. 서류 평가 영역:
+   - 공동체역량: 협업능력, 학교폭력 여부 등
+   - 학업역량: 학업태도/성취, 주요 과목 성적 등
+   - 전공적합성: 지원전공 관련 활동 및 경험
+5. 면접 평가:
+   - 개별면접으로 진행되며, 10분 이내로 이루어집니다.
+   - 지원 동기와 학업 계획, 학업역량, 전공적합성 등을 평가합니다.
+6. 동점자 처리 기준:
+   - 면접 성적이 우선 순위
+   - 서류평가 공동체역량 영역 성적이 높은 자
+   - 서류평가 전공적합성 영역 성적이 높은 자
+7. 기타 사항:
+   - 외국고교 졸업예정자는 2024년 2월 16일까지 추가 제출해야 합니다.
+   - 지원자격 증빙서류는 3년 이상의 재직 기간을 보유하고 있어야 합니다.
+이 전형은 성인 학습자들이 자신의 경력과 경험을 바탕으로 대학에 입학할 수 있는 좋은 기회를 제공합니다.</t>
+        </is>
+      </c>
+      <c r="D244" t="n">
+        <v>0.8123936057090759</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>평생학습자전형의 지원자격은 다음과 같습니다
+ - 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>평생학습자전형의 지원 자격은 다음과 같습니다:
+1. 산업체 적용 범위:
+   - 국가·지방자치단체 및 공공단체 (소속 직원의 경우)
+   - 근로기준법 제11조에 의거 상시근로자 5인(사업주 포함) 이상 사업체
+   - 4대 보험 중 1개 이상 가입 사업체 (창업·자영업자 포함)
+     ※ 단, 4대 보험 가입 대상 사업체가 아닌 1차 산업 종사자는 국가·지방자치단체가 발급하는 공적증명서 확인을 통해 인정할 수 있음
+2. 재직기간:
+   - 2024년 3월 1일 기준으로 총 재직기간이 3년 이상(예정)이어야 함
+   - 재직기간은 제출한 지원 자격 증빙 서류 상으로 증명되는 기간만 산정
+   - 2개 이상의 산업체에 재직한 경우 총 재직기간은 합산하여 산정하되, 중복되는 기간은 이중으로 합산하지 않음
+   - 군 의무복무 경력도 재직기간으로 인정함
+이러한 자격 요건을 충족해야 평생학습자전형에 지원할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D245" t="n">
+        <v>0.7140823602676392</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>2024년 1월 17일(수)에 실기고사가 있습니다. 이 날짜는 디자인조형학과와 체육학과의 실기고사를 치르는 날입니다.
+실기고사 일정:
+- **일시:** 2024년 1월 17일(수)
+- **대기실 및 입실시간 안내:** 2024년 1월 12일(금) 14:00 이후, 입학안내 홈페이지에서 확인 가능합니다.
+따라서 실기고사는 2024년 1월 17일에 해당 학과의 대기실로 가셔야 합니다.</t>
+        </is>
+      </c>
+      <c r="D246" t="n">
+        <v>0.8839367628097534</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>체육학과의 실기고사는 다음과 같이 진행됩니다:
+1. **모집단위**: 체육학과입니다.
+2. **실기종목**:
+   - 제자리 멀리뛰기 (배점: 240점, 비율: 24%)
+   - 메디신볼 던지기 (배점: 243점, 비율: 23%)
+   - Z-런 (배점: 230점, 비율: 23%)
+실기고사는 이 세 가지 종목 중 하나를 선택하여 응시하게 됩니다. 각 종목의 배점과 비율은 다음과 같습니다:
+- 제자리 멀리뛰기는 240점 (24%)
+- 메디신볼 던지는 243점 (23%)
+- Z-런은 230점 (23%)
+실기고사는 해당 종목에 따라 준비물과 시간이 다르므로, 응시 전 각각의 세부 사항을 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D247" t="n">
+        <v>0.4788044095039368</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>아니요, 수시 충원합격자 발표는 전화로 개별 연락을 하지 않습니다. 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형 일정에 명시된 합격자 발표일에 합격 여부를 반드시 홈페이지를 통해 확인해야 합니다. 3차 이후 충원합격자 발표 과정에서만 개별 전화 통보가 이루어집니다.</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>2024년도 입학전형 일정에 따르면, 수시 충원 합격자 발표 후에는 개별 전화 통보가 이루어집니다. 따라서 충원 합격자가 발표되면 대개 합격자에게 전화로 연락이 가게 됩니다.
+만약 전화를 받지 못한 경우나 추가적인 정보가 필요하다면, 입학관리팀에 문의하시거나 공지된 입학안내 홈페이지에서 확인해 보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D248" t="n">
+        <v>0.6202619671821594</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2023학년도 경찰행정학과 수시모집 결과에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>2023학년도 경찰행정학과의 수시모집 결과에 대한 정보는 제공된 자료에서 직접적으로 확인할 수 없습니다. 하지만, 2024학년도의 모집 인원과 지원 인원, 경쟁률 등의 데이터가 포함되어 있습니다.
+2024학년도 경찰행정학과의 경우:
+- 모집인원: 7명
+- 지원인원: 29명
+- 경쟁률: 4.14
+이 정보를 바탕으로 추정할 수는 있지만, 정확한 2023학년도의 결과는 제공된 자료에는 포함되어 있지 않습니다.
+더 구체적인 2023학년도 경찰행정학과의 수시모집 결과가 필요하시다면, 해당 대학의 입학처 웹사이트(https://ipsi.deu.ac.kr/main.do)를 참조하거나 직접 문의하시는 것이 가장 정확할 것입니다.</t>
+        </is>
+      </c>
+      <c r="D249" t="n">
+        <v>0.8265199065208435</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>아니요, 정시모집 지원자는 수능에 응시하지 않으면 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>2024학년도 입학사정관제(학생부종합)와 실기/실적 위주전형에서는 수능 응시 여부에 관계없이 지원이 가능합니다. 그러나 일반학생전형인 다군의 경우, 해당 모집단위는 수능 응시가 필수입니다.
+예를 들어:
+- 나군 학생부종합(조기취업형계약학과전형) 등은 수능 응시 여부에 관계없이 지원 가능합니다.
+- 다군 수능(일반학생전형) 등은 수능 응시가 필수입니다.
+따라서, 정시에 수능을 응시하지 않아도 학생부종합 등의 전형에서는 지원이 가능합니다. 하지만 특정 모집단위는 수능 응시가 필요할 수 있으므로, 지원하고자 하는 모집단위의 자세한 조건을 확인하시기 바랍니다.
+더 궁금하신 점이 있으면 https://ipsi.deu.ac.kr/main.do를 참조하거나 학교 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D250" t="n">
+        <v>0.6299585700035095</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>네, 고등학교 졸업한지 10년이 지났더라도 정시 지원이 가능합니다. "고교유형별 지원자격" 표에 따르면, 일반고, 자율고, 특수목적고, 특성화고, 영재학교, 기타 학교, 검정고시, 외국고 출신자 모두 정시 지원이 가능합니다. 따라서 고등학교 졸업 시기와 상관없이 지원할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>2024학년도 동아대학교의 정시모집 전형을 보면, 일반고 및 자율고 출신자 외에 특수목적고(과학고, 국제고, 외국어고), 예술고, 체육고, 마이스터고, 특성화고(특성, 대안), 영재학교, 학력인정고, 방송통신고, 각종학교 출신자도 지원 가능합니다. 
+하지만, 고등학교 졸업 후 10년 이상 경과한 경우 일반적으로 정시모집에 지원하기 어렵습니다. 동아대학교의 정시모집은 주로 고등학교 졸업생을 대상으로 하고 있습니다.
+특히, 2024학년도부터 일부 전형에서 다음과 같은 변화가 있었습니다:
+- 학생부종합(성인학습자(정원내)전형): 만 30세 이상인 자를 대상으로 지원 가능해졌습니다.
+- 학생부종합(재직자전형): 특성화고 교육과정 또는 1년 이상의 직업교육훈련과정을 이수한 경우만 지원 가능하게 되었습니다.
+따라서, 고등학교 졸업 후 10년이 지났다면 정시모집에 지원하기 위해서는 위와 같은 조건 중 적합한 것을 찾아보시거나, 동아대학교 입학처 웹사이트(https://ipsi.deu.ac.kr/main.do)를 참조하시기 바랍니다. 
+더 자세한 정보가 필요하시면 동아대학교 입학처로 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D251" t="n">
+        <v>0.6676812767982483</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 정시 일정은 다음과 같습니다
+1. 모집인원 확정 공고
+   - 일정: 2024년 1월 2일(화)
+   - 비고: 입학안내 홈페이지 공고
+2. 원서접수(인터넷)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 6일(토) 마감일 18시까지
+   - 비고: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. 서류 제출 (제출서류가 있는 경우)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 12일(금) 마감일 17시까지 도착
+   - 비고: 서류 제출대상 (Ⅳ. 전형별 세부 안내 참조)
+   - 제출방법: 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. 실기고사
+   - &lt;가&gt;군 실기고사 레저스포츠학과 태권도학과
+     - 일정: 2024년 1월 16일(화)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+   - &lt;나&gt;군 실기고사 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) 체육학과
+     - 일정: 2024년 1월 17일(수)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+5. 합격자 발표 및 등록금 납부
+   - 최초 합격자 발표
+     - 일정: 2024년 2월 2일(금) 14:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록
+     - 일정: 2024년 2월 7일(수) ~ 2월 13일(화) (은행마감시간 내)
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 발표
+     - 일정: 2024년 2월 14일(수) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 등록
+     - 일정: 2024년 2월 14일(수) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 발표
+     - 일정: 2024년 2월 15일(목) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 등록
+     - 일정: 2024년 2월 15일(목) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 발표
+     - 일정: 2024년 2월 15일(목) 19:00 ~ 2024년 2월 20일(화) 18시까지
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 등록
+     - 일정: 개별 전화 통보 시 안내
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+추가 유의사항:
+- 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형일정에 명시된 합격자 발표일에 합격 여부를 홈페이지를 통해 확인해야 합니다. 별도 개별 연락을 실시하지 않으며, 합격 여부 미확인으로 인해 등록하지 못했다 하더라도 등록(입학) 포기자로 간주합니다.
+- 최초 및 충원합격자는 전형일정에 명시된 등록 일정을 참고하여 지정 기일 내에 등록금을 납부해야 하며, 지정 기일 내에 등록금을 납부하지 않는 경우 입학을 포기하는 것으로 간주합니다.</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 정시 모집일정은 다음과 같습니다:
+1. **모집인원 확정 공고**:
+   - 날짜: 2024. 01. 02.(화)
+   - 비고: 입학안내 홈페이지 공고
+2. **원서접수(인터넷)**:
+   - 기간: 2024. 01. 03.(수) ~ 2024. 01. 06.(토) 마감일 18시까지
+   - 비고: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. **서류 제출 (제출서류가 있는 경우)**:
+   - 기간: 2024. 01. 03.(수) ~ 2024. 01. 12.(금) 마감일 17시까지 도착
+   - 비고: 서류 제출대상 (Ⅳ. 전형별 세부 안내 참조) 제출방법 : 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. **&lt;가&gt;군 실기고사 레저스포츠학과 태권도학과**:
+   - 날짜: 2024. 01. 16.(화)
+   - 비고: 대기실 및 입실시간 안내 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회
+5. **&lt;나&gt;군 실기고사 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) 체육학과**:
+   - 날짜: 2024. 01. 17.(수)
+   - 비고: 대기실 및 입실시간 안내 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회
+6. **합격자 발표 및 등록금 납부**:
+   - 최초 합격자 발표: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 2024. 02. 02.(금) 14:00
+     - 비고: * 발표 : 홈페이지에서 개별 조회 * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소 : 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록: 2024. 02. 07.(수) ~ 02. 13.(화) (은행마감시간 내)
+     - 비고: * 발표 : 홈페이지에서 개별 조회 * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소 : 학교 지정은행 (등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 발표: 2024. 02. 14.(수) 09:00
+     - 비고: * 발표 : 홈페이지에서 개별 조회 * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소 : 학교 지정은행 (등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 등록: 2024. 02. 14.(수) 09:00~16:00
+     - 비고: * 발표 : 홈페이지에서 개별 조회 * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소 : 학교 지정은행 (등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 발표: 2024. 02. 15.(목) 09:00
+     - 비고: * 발표 : 홈페이지에서 개별 조회 * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소 : 학교 지정은행 (등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 등록: 2024. 02. 15.(목) 09:00~16:00
+     - 비고: * 발표 : 홈페이지에서 개별 조회 * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소 : 학교 지정은행 (등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 발표: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지
+     - 비고: * 발표 : 홈페이지에서 개별 조회 * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소 : 학교 지정은행 (등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 등록: 개별 전화 통보 시 안내
+     - 비고: * 발표 : 홈페이지에서 개별 조회 * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소 : 학교 지정은행 (등록금 고지서에 기재)
+이 일정들은 동의대학교 2024학년도 정시 모집을 위한 주요 단계를 포함하고 있으며, 각 단계별로 필요한 준비와 제출 사항들이 명확히 안내되어 있습니다.</t>
+        </is>
+      </c>
+      <c r="D252" t="n">
+        <v>0.9374014139175415</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정은 다음과 같습니다:
+1. 모집인원 확정 공고: 2024년 1월 2일(화)에 입학안내 홈페이지에 공고됩니다.
+2. 원서접수(인터넷): 2024년 1월 3일(수)부터 2024년 1월 6일(토) 18시까지 진행됩니다. 접수는 [입학안내 홈페이지](http://ipsi.deu.ac.kr) 또는 [유웨이 어플라이](http://www.uwayapply.com)에서 가능합니다.
+3. 서류 제출 (제출서류가 있는 경우): 2024년 1월 3일(수)부터 2024년 1월 12일(금) 17시까지 도착해야 합니다. 서류 제출 대상자는 접수 사이트에서 우편발송용 표지를 출력하여 부착 후 제출하거나 우편으로 발송해야 합니다.
+4. 실기고사 일정:
+   - &lt;가&gt;군 실기고사: 레저스포츠학과, 태권도학과는 2024년 1월 16일(화)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+   - &lt;나&gt;군 실기고사: 디자인조형학과(시각디자인, 산업디자인, 공예디자인), 체육학과는 2024년 1월 17일(수)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+5. 합격자 발표 및 등록금 납부:
+   - 최초 합격자 발표: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 모두 2024년 2월 2일(금) 14:00에 발표됩니다. 발표는 홈페이지에서 개별 조회할 수 있으며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다. 등록장소는 학교 지정은행입니다.
+   - 최초 합격자 등록: 2024년 2월 7일(수)부터 2월 13일(화)까지 은행 마감시간 내에 등록해야 합니다.
+   - 충원 합격자 발표 및 등록:
+     - 1차 발표: 2024년 2월 14일(수) 09:00, 등록은 같은 날 09:00~16:00
+     - 2차 발표: 2024년 2월 15일(목) 09:00, 등록은 같은 날 09:00~16:00
+     - 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보, 등록은 개별 전화 통보 시 안내됩니다.
+모든 지원자는 전형일정에 명시된 합격자 발표일에 홈페이지를 통해 합격 여부를 확인해야 하며, 지정 기일 내에 등록금을 납부하지 않으면 입학을 포기하는 것으로 간주됩니다.</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시 모집 일정은 다음과 같습니다:
+1. **모집인원 확정 공고**:
+   - 날짜: 2024. 01. 02.(화)
+   - 비고: 입학안내 홈페이지 공고
+2. **원서접수(인터넷)**:
+   - 시작일: 2024. 01. 03.(수)
+   - 마감일: 2024. 01. 06.(토) 18시까지
+   - 참고 사이트: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. **서류 제출 (제출서류가 있는 경우)**:
+   - 시작일: 2024. 01. 03.(수)
+   - 마감일: 2024. 01. 12.(금) 17시까지 도착
+   - 제출방법: 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송 (서류 제출대상은 IV. 전형별 세부 안내 참조)
+4. **&lt;가&gt;군 실기고사 레저스포츠학과 태권도학과**:
+   - 날짜: 2024. 01. 16.(화)
+   - 비고: 대기실 및 입실시간 안내는 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회
+5. **&lt;나&gt;군 실기고사 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) 체육학과**:
+   - 날짜: 2024. 01. 17.(수)
+   - 비고: 대기실 및 입실시간 안내는 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회
+6. **합격자 발표 및 등록금 납부**:
+   - 최초 합격자 발표: 2024. 02. 02.(금) 14:00
+     - 비고: * 발표 : 홈페이지에서 개별 조회 * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소 : 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록: 2024. 02. 07.(수) ~ 02. 13.(화) (은행마감시간 내)
+     - 비고: * 발표 : 홈페이지에서 개별 조회 * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소 : 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 발표: 2024. 02. 14.(수) 09:00
+     - 비고: * 발표 : 홈페이지에서 개별 조회 * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소 : 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 등록: 2024. 02. 14.(수) 09:00~16:00
+     - 비고: * 발표 : 홈페이지에서 개별 조회 * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소 : 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 발표: 2024. 02. 15.(목) 09:00
+     - 비고: * 발표 : 홈페이지에서 개별 조회 * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소 : 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 등록: 2024. 02. 15.(목) 09:00~16:00
+     - 비고: * 발표 : 홈페이지에서 개별 조회 * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소 : 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 발표: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지
+     - 비고: * 발표 : 홈페이지에서 개별 조회 * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소 : 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 등록: 개별 전화 통보 시 안내
+     - 비고: * 발표 : 홈페이지에서 개별 조회 * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소 : 학교 지정은행(등록금 고지서에 기재)
+이 일정들은 동의대학교 2024학년도 정시 모집을 위한 주요 단계를 포함하고 있으며, 각 단계별로 필요한 준비와 제출 사항들이 명확히 안내되어 있습니다.</t>
+        </is>
+      </c>
+      <c r="D253" t="n">
+        <v>0.9569814205169678</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에서는 수능 성적자료의 온라인 제공에 동의하는 것으로 간주되며, 수능 성적이 요구됩니다. 따라서 수능 미응시자는 지원이 불가능합니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시모집에서 수능 미응시자도 지원이 가능한 전형은 다음과 같습니다:
+1. **가군 실기/실적(일반학생전형)**:
+   - 레저스포츠학과, 태권도학과
+   - 이 전형에서는 수능 점수가 필요하지 않습니다.
+2. **나군 실기/실적(경기실적우수자전형)**:
+   - 모든 모집단위에서 수능 점수가 필요하지 않습니다.
+3. **학생부종합(조기취업형계약학과전형)**:
+   - 이 전형에서도 수능 점수가 필요하지 않습니다.
+이러한 전형들은 주로 실기 또는 경험이나 학생부 성적을 중점적으로 평가하므로, 수능 미응시자도 지원할 수 있는 기회가 있습니다.</t>
+        </is>
+      </c>
+      <c r="D254" t="n">
+        <v>0.6175468564033508</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 충원 합격 차수에 대한 정보가 존재하지않습니다.
+전년도의 전자공학과의 충원 합격은 36명까지 이루어졌습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>2024학년도 데이터를 바탕으로 전자공학과의 충원 합격자는 34명이며, 지원자는 146명으로 경쟁률이 4.29입니다. 하지만 전년도에 대한 구체적인 정보가 제공되지 않았기 때문에 전년도의 충원 합격 차수를 알려드리기는 어렵습니다.
+만약 더 정확한 정보를 얻으시려면 [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do) 웹사이트를 참조하시거나 입학처에 직접 문의하시는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="D255" t="n">
+        <v>0.8597583770751953</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>동의대학교 입학관리팀 연락처는 051-890-4379~89입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>提供的信息中并没有直接提到东义大学入学处的电话号码。为了获取准确的信息，建议访问东义大学官方网站（https://ipsi.deu.ac.kr/main.do）上的招生页面或联系学校的招生办公室以获得最新的联系电话和其他重要信息。
+如果您需要其他帮助或有其他问题，请告诉我！</t>
+        </is>
+      </c>
+      <c r="D256" t="n">
+        <v>0.4634065628051758</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자 발표 과정에서 전화 연락이 두절되어(3회 통화 시도) 충원합격 통보가 어려운 경우, 해당 지원자는 등록 의사가 없는 것으로 간주되어 등록 포기자로 처리됩니다. 따라서 충원합격자 발표 기간(2024년 2월 15일(목)~2024년 2월 20일(화)) 동안 전화 연락을 받을 수 있도록 유의해야 합니다.</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>2024년 2월 15일(목) 19시부터 20일(화) 18시까지는 충원합격자 3차 이후 발표 및 등록이 이루어집니다. 이 기간 동안 개별 전화 통보가 진행되지만, 전화 통화가 되지 않는 경우에도 다음과 같은 절차를 따릅니다:
+1. **발표**: 홈페이지에서 개별 조회 가능합니다.
+2. **고지서 교부**: 홈페이지에서 출력하거나 입학관리팀에서 수령이 가능합니다.
+3. **등록장소**: 학교 지정은행으로 등록을 진행해야 합니다 (등록금 고지서에 기재된 정보를 확인하세요).
+따라서, 전화 통화가 되지 않더라도 위의 절차를 따르면 충원합격자로 선발되신 후 등록이 가능합니다.</t>
+        </is>
+      </c>
+      <c r="D257" t="n">
+        <v>0.9278401136398315</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야 할 서류는 다음과 같습니다
+6년 과정
+지원자 본인의 가족관계증명서 1부
+지원자 본인, 부, 모의 주민등록초본 각 1부 (총 3부)
+중학교 학교생활기록부 1부
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+부모가 사망한 경우: 사망한 부 또는 모의 기본증명서 1부 (기본증명서에 ‘사망’이 명시되어 있지 않은 경우 제적등본 1부 추가 제출)
+부모가 이혼한 경우: 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부, 본인의 기본증명서(상세) 1부 추가 제출
+12년 과정
+지원자 본인의 주민등록초본 1부
+초등학교 학교생활기록부 1부
+중학교 학교생활기록부 1부
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+중·고등학교 재학 시 부, 모 모두 농어촌(읍·면)지역에서 거주한 자는 ‘6년과정' 서류 제출 가능
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+추가 정보
+제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+주의사항: 제출서류 미제출자는 불합격 처리됩니다. 
+주민등록초본, 가족관계증명서, 혼인관계증명서, 기본증명서는 주민등록번호 전체가 기재되어 있어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출하여야 합니다.
+상기 서류는 2024년 1월 1일 이후에 발급된 서류에 한해 제출해야 합니다. 
+최종등록자 중 고교 졸업예정자는 졸업 이후 지원자격 증빙서류를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원시 다음과 같은 서류를 제출해야 합니다:
+1. **6년 과정 유형**
+   - 지원자 본인의 가족관계증명서 1부
+   - 지원자 본인, 부모의 주민등록초본 각 1부 (총 3부)
+   - 중학교 학교생활기록부 1부 (교육기관, 공공기관, 무인민원발급기, 인터넷 정부24에서 발급 가능)
+   - 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상 교 또는 미동의자) 
+     - 부모가 사망한 경우: 사망한 부 또는 모의 기본증명서 1부
+     - 부모가 이혼한 경우: 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부, 본인의 기본증명서(상세) 1부
+2. **12년 과정 유형**
+   - 지원자 본인의 주민등록초본 1부
+   - 초등학교 학교생활기록부 1부 
+   - 중학교 학교생활기록부 1부 
+   - 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상 교 또는 미동의자) 
+3. **최종 등록 시 추가 제출서류**
+   - 고교 졸업증명서
+   - 지원자 본인, 부모의 초본 각 1부 (총 3부)
+이러한 서류들은 농어촌 지역에 거주하고 있는 자격을 갖춘 지원자를 확인하기 위한 것입니다.</t>
+        </is>
+      </c>
+      <c r="D258" t="n">
+        <v>0.9547529220581055</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야 할 서류는 다음과 같습니다
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+추가로, 최종등록자라면 다음 서류도 제출해야 합니다
+1. 고교 졸업증명서
+2. 지원자 본인의 주민등록초본 1부 주민등록초본은 고교 졸업 이후 발급된 것이어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출해야 합니다.</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>12년 과정의 농어촌학생전형 지원시 제출해야하는 서류는 다음과 같습니다:
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부 
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부(학생부 온라인 제공 비대상교 및 미동의자)
+   - 교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+이 외에 추가로 제출해야 할 서류는 없습니다. 다만, 중·고등학교 재학 시 부모 모두 농어촌 지역에서 거주한 자라면 '6년 과정'의 서류를 제출할 수 있다는 점을 참고하시기 바랍니다.
+참조: 나군 학생부교과(농어촌학생전형) - 정원외 제출서류에서 유형은 12년 과정이며, 구분은 부모의 거주지와는 상관없이 지원자 본인이 초·중·고등학교 전 과정을 농어촌(읍·면)지역 소재 학교에서 이수하고 거주한 자이며, 제출서류은 1. 지원자 본인의 주민등록초본 1부 2. 초등학교 학교생활기록부 1부 3. 중학교 학교생활기록부 1부 4. 고등학교 학교생활기록부 1부(학생부 온라인 제공 비대상교 및 미동의자) ※ 중·고등학교 재학 시 부, 모 모두 농어촌(읍∙면)지역에서 거주한 자는 '6년과정' 서류제출 가능 ※ 교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급이다.</t>
+        </is>
+      </c>
+      <c r="D259" t="n">
+        <v>0.9672804474830627</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 기회균등 전형이라는 전형이 존재하지 않습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>提供的信息中没有明确提到2024年招生计划中是否取消了针对低收入家庭的公平机会选拔类型。为了获取最准确的信息，建议直接访问学校官网或联系学校的招生办公室进行确认。
+您可以参考以下链接以获得更多信息：
+https://ipsi.deu.ac.kr/main.do
+如果有更具体的问题或者需要进一步的帮助，请告诉我！</t>
+        </is>
+      </c>
+      <c r="D260" t="n">
+        <v>0.6291316151618958</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>제공된 데이터에는 수능 최저등급에 대한 구체적인 절사 여부에 대한 정보가 포함되어 있지 않습니다. 따라서, 수능 최저등급에서 사탐 2 과목 평균산출 시 2.5등급이 나올 경우 절사 여부에 대한 정확한 정보를 확인하려면 입학안내 홈페이지(http://ipsi.deu.ac.kr)에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>2.5등급은 등급평균을 반올림한 값일 가능성이 높습니다. 대학마다 수능 최저등급 기준에 대한 정확한 처리 방법이 다를 수 있으나, 일반적으로 절사법보다는 반올림을 더 많이 사용합니다.
+따라서 2.5등급은 보통 3등급으로 반올림되어 평균 등급을 계산하게 됩니다. 예를 들어 두 과목의 등급이 각각 2등급과 3등급이라면, 평균 등급은 (2+3)/2 = 2.5로 나옵니다. 이 경우 대다수의 대학에서는 2.5를 3으로 반올림하여 처리합니다.
+하지만 정확한 처리 방법은 해당 대학의 입시 안내나 홈페이지를 확인하는 것이 가장 확실합니다. 만약 불확실하다면, 학교 관계자에게 직접 문의하시는 것도 좋은 방법입니다.</t>
+        </is>
+      </c>
+      <c r="D261" t="n">
+        <v>0.6582192182540894</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 3차까지 있으며, 3차 이후에는 개별 전화 통보로 발표됩니다. - 1차 발표: 2024. 02. 14.(수) 09:00 - 2차 발표: 2024. 02. 15.(목) 09:00 - 3차 이후 발표: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지 3차 이후 발표는 개별 전화 통보로 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>2024년 정시 충원 합격자는 총 3차로 발표됩니다.
+1. **1차 충원 합격자 발표 및 등록**:
+   - 일정: 2024. 02. 14.(수) 09:00
+   - 내용: 1차 충원 합격자 발표와 등록
+2. **2차 충원 합격자 발표 및 등록**:
+   - 일정: 2024. 02. 15.(목) 09:00
+   - 내용: 2차 충원 합격자 발표와 등록
+3. **3차 이후 충원 합격자 발표 및 등록**:
+   - 일정: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지
+   - 내용: 3차 이후 충원 합격자 발표와 등록 (개별 전화 통보)
+이러한 일정에 따라 합격자는 각 차례에 맞춰 발표되고 등록이 이루어집니다.</t>
+        </is>
+      </c>
+      <c r="D262" t="n">
+        <v>0.9045135974884033</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>제공된 컨텍스트에 따라 e-비즈니스학과(e-비즈니스학과)의 최초 합격자 및 최종 등록생의 평균 점수는 다음과 같습니다:
+- 최초합격자:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 환산 점수 합: 317.20 (평균)
+  - 영어 등급 3.20 (평균)
+  - 수능 4개 영역 등급 4.17 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 438.60 (평균)
+- 최종 등록 학생:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 308.58 (평균)
+  - 영어 등급 3.66 (평균)
+  - 수능 4개 영역 등급 4.53 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 426.25 (평균)
+수능 4개 영역 등급이 4.6점이라면 최초 합격자(4.17점)와 최종 등록자(4.53점) 모두 평균을 약간 상회하는 수준입니다. 반드시 합격이 보장되는 것은 아니지만 다른 영역(국어, 수학, 탐구, 영어) 성적이 경쟁력이 있다면 충원 합격(추가모집)을 통해 합격할 가능성이 있습니다. 
+보다 정확한 평가를 위해 총 표준 변환 점수 합과 제공된 평균을 비교하는 것이 좋습니다. 총점이 평균에 근접하거나 그 이상이면 충원 합격을 통해 합격할 가능성이 더 높을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>2024학년도의 정시 모집에 대한 자세한 정보를 제공하기 위해서는 해당 단과대학 및 모집단위의 최종 등록자들의 성적 분포와 경쟁률 등을 고려해야 합니다. 주어진 데이터에서 e비즈니스학과의 경우 다음과 같은 특징이 있습니다:
+- 2024학년도 모집인원: 10명
+- 지원 인원: 89명
+- 경쟁률: 8.90
+- 충원 합격 (후보순위): 31명
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 308.58
+- 영어 등급의 평균: 3.66
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균: 426.25
+주요 성적 데이터를 보면, e비즈니스학과의 평균 수능 4개 영역 (가산점 포함) 표준 변환 점수 합은 426.25로, 이는 4.6이라는 점수보다 높습니다.
+따라서, 단순히 수능 성적이 4.6이었다면 추가적으로 정시 전형으로 합격하기는 어려울 것으로 보입니다. 하지만 다음과 같은 요인들을 고려해야 합니다:
+1. **개별 지원자의 경쟁력**: 다른 지원자들의 성적과 경쟁률을 고려해야 합니다.
+2. **가산점**: 특정 모집단위에서는 수능 가산점을 받을 수 있으므로, 이 점수를 포함하면 실제 평균이 더 낮아질 수도 있습니다.
+3. **면접 및 서류평가**: 면접과 서류 평가에서 우수한 성적을 거두는 경우 합격 가능성은 높아집니다.
+따라서, 정확한 답변을 위해서는 해당 단과대학의 최종 등록자들의 전체 성적 분포와 경쟁률 등을 확인해야 합니다. 더 자세한 정보를 얻기 위해서는 [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do) 웹사이트를 참조하거나 입학처에 문의하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D263" t="n">
+        <v>0.8367997407913208</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, e비즈니스학과의 영어 등급 평균은 3.66이고, 수능 4개 영역 등급 평균은 4.53입니다. 따라서, 현재 정시 등급이 5.3이라면 e비즈니스학과에 합격하기 어려울 수 있습니다. e비즈니스학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 e비즈니스학과의 수능 전형성적 산출방법은 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합
+- 영어 등급
+주요 통계 데이터:
+- 평균: 317.20
+- 표준 편차: 7.56
+- 영어 등급 평균: 3.20
+- 영어 등급 표준 편차: 1.24
+등급 5.3은 등급 점수로 약 98점에 해당합니다 (참조: 제공된 데이터에서 확인 가능).
+이를 고려할 때, e비즈니스학과의 평균 점수가 317.20이고 표준 편차가 7.56이라는 것을 보면, 등급 5.3은 상당히 높은 점수입니다.
+- 영어 등급이 5.3이라면, 이는 매우 높은 수준이며, 평균보다 약 10점 이상 높습니다.
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균이 317.20이고 표준 편차가 7.56이라면, 등급 5.3은 상당히 높은 수준입니다.
+따라서, 영어 등급이 매우 높다면, 이 점수로는 e비즈니스학과에 최초 합격 가능성은 매우 높습니다. 그러나 정확한 확률을 예측하기 위해서는 전체 지원자의 성적 분포와 비교해야 합니다.
+결론적으로, 영어 등급이 5.3이라면 e비즈니스학과에 최초 합격 가능성이 매우 높다고 볼 수 있습니다. 하지만 최종 결정은 전체 지원자들의 성적 분포를 고려하여 내려야 합니다.</t>
+        </is>
+      </c>
+      <c r="D264" t="n">
+        <v>0.8063082695007324</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 31번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 38번이라면 e비즈니스학과에 예비 합격할 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>2024학년도 입시 정보를 바탕으로 분석해보겠습니다. 하지만 정확한 예비합격 가능성 판단을 위해서는 여러 요소들을 고려해야 합니다.
+1. **전형별 평균 점수와 경쟁률**:
+   - e비즈니스학과의 경우, 2024학년도 최종등록자에서 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 313.13이며, 표준 편차는 5.75입니다.
+   - 경쟁률은 10.56으로 매우 높습니다.
+2. **개인 성적**:
+   - e비즈니스학과의 경우, 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균이 313.13이고, 이정도면 경쟁률을 고려할 때 상당히 높은 점수를 받으셨습니다.
+   - 하지만 표준 편차가 5.75로 비교적 낮기 때문에, 개인의 성적이 평균보다 약간 떨어진다면 합격 가능성은 낮아질 수 있습니다.
+3. **전형요소**:
+   - e비즈니스학과는 실기/실적(일반학생전형) 모집단위이며, 전형요소 반영비율의 수능은 30%이고, 실기는 70%입니다.
+   - 이 점수만으로는 실기 부분을 고려하면 합격 가능성은 낮아 보입니다.
+4. **추천서 및 면접**:
+   - e비즈니스학과의 경우, 서류평가와 면접 평가가 중요합니다.
+   - 서류평가에서는 학업역량, 전공적합성 등을 평가받습니다.
+   - 면접에서도 지원동기 및 학업계획, 학업역량, 전공적합성 관련 공통문항을 발표하고 질의응답을 받게 됩니다.
+5. **추천서와 자기소개서**:
+   - 추천서와 자기소개서는 학교생활과 성격, 전공 적합성을 평가받습니다.
+   - 이 부분에서 좋은 내용을 담아야 합니다.
+6. **면접 준비**:
+   - 면접에서는 지원동기와 학업계획, 학업역량, 전공적합성 등을 잘 준비해야 합니다.
+   - 실제 질문들을 미리 예상하고 대비하는 것이 중요합니다.
+결론적으로, e비즈니스학과의 경우 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합이 313.13 이상이라면 이미 경쟁력을 갖추고 있습니다. 하지만 실기 부분을 고려하면, 추가적인 준비와 노력이 필요할 것입니다.
+**추천 사항:**
+- 면접 준비를 철저히 하세요.
+- 추천서와 자기소개서에서 지원자의 학업역량과 전공적합성을 잘 표현하세요.
+- 실제 질문들을 미리 예상하고 대비하세요.
+이렇게 준비하시면 더 높은 가능성으로 예비합격을 이룰 수 있을 것입니다.</t>
+        </is>
+      </c>
+      <c r="D265" t="n">
+        <v>0.740109920501709</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.44이라면 간호학과에 합격하기 어려울 수 있습니다. 간호학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>3.44 등급으로 동의대학교 간호학과에 합격하기는 어렵다고 볼 수 있습니다. 간호학과의 최종등록자들의 성적 분포를 보면:
+- 평균 영어 등급은 대략 2.34에서 5.00 사이입니다.
+- 평균 수능 4개 영역 등급의 평균은 3.37에서 6.12 사이입니다.
+당신의 영어 등급이 3.44로, 이는 평균보다 약간 낮습니다. 그러나 수능 4개 영역 등급의 평균이 3.37에서 6.12 사이라는 점을 고려하면, 당신의 등급은 상당히 높은 편입니다.
+또한, 간호학과는 경쟁률이 높은 학과 중 하나로 보입니다 (예: 최초합격자의 경우 6.59, 최종등록자의 경우 6.59). 이는 많은 지원자가 좋은 성적을 가지고 있어 경쟁이 치열하다는 것을 의미합니다.
+결론적으로, 당신의 영어 등급은 약간 낮지만 수능 4개 영역 등급이 높기 때문에 합격 가능성은 있으나 매우 낮습니다. 최선을 다해 지원하시되, 다른 대학이나 전형을 고려하는 것도 좋을 것 같습니다.
+추가적으로, 간호학과는 실기 및 면접 평가도 포함되어 있을 수 있으므로, 이 부분에서도 좋은 성적을 거두는 것이 중요할 것입니다.</t>
+        </is>
+      </c>
+      <c r="D266" t="n">
+        <v>0.7798629999160767</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 보면, 평균 영어 등급은 2.34이고,  수능 4개 영역 등급 평균은 3.37입니다. 
+따라서, 현재 정시 등급이 2.52이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>2.52라는 점수는 영어 등급 점수로 보이는데, 동의대학교 간호학과의 경우 수능 전형성적 산출 방법은 다음과 같습니다:
+- 국어 표준점수 + 수학 표준점수 + 영어 등급점수 + 탐구 표준점수 (가군)
+- 또는 국어 표준점수 + 수학 표준점수 + 영어 등급점수 + 탐구 표준점수 + 가산점 (나군)
+간호학과는 주로 나군으로 모집되며, 다음과 같은 특징이 있습니다:
+1. **모집인원**: 22명
+2. **지원 인원**: 145명
+3. **경쟁률**: 6.59
+4. **최종 합격 (후보순위)**: 37명
+**영어 등급점수**는 간호학과에서 중요한 요소 중 하나입니다. 하지만, 단순히 영어 점수가 2.52라는 것만으로는 최종합격 여부를 판단하기 어렵습니다.
+다음은 고려해야 할 몇 가지 포인트입니다:
+1. **전반적인 성적**: 국어, 수학, 탐구 등 다른 과목의 성적이 중요합니다.
+2. **가산점**: 수학(미적분 또는 기하) 응시자에게는 0.1 가산점이 적용됩니다.
+3. **경쟁률 및 모집인원**: 매우 높은 경쟁률을 고려해야 합니다.
+**추천 사항:**
+- **전반적인 성적 분석**: 국어, 수학, 탐구 등 다른 과목의 성적도 함께 확인해보세요.
+- **가산점 활용**: 만약 수학(미적분 또는 기하)을 응시했다면 가산점을 활용해볼 만합니다.
+- **추천 학과**: 경쟁률이 낮은 다른 학과를 고려해 볼 수도 있습니다.
+결론적으로, 단순히 영어 점수만으로는 최종합격 여부를 판단하기 어렵습니다. 전반적인 성적을 종합적으로 분석하고, 필요하다면 추가 지원을 고려하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D267" t="n">
+        <v>0.7779017686843872</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.7이라면 간호학과의 평균 등급보다 낮은 성적을 가지고 있기 때문에 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>3.7의 영어 등급 점수는 상당히 좋은 성적입니다. 하지만 간호학과의 경쟁률이 매우 높습니다 (예를 들어, 간호학과의 경우 6.59의 경쟁률을 보였습니다). 따라서 정시 성적이 3.7이라면 합격 가능성은 낮을 수 있습니다.
+간호학과에 합격하기 위해서는 다음과 같은 요소들을 고려해야 합니다:
+1. **전반적인 성적**: 영어 등급이 높으므로 이 부분에서는 우위를 점할 수 있지만, 다른 과목의 성적이 낮다면 전체적으로 좋은 평가를 받기 어렵습니다.
+2. **면접 및 실기**: 간호학과는 실무 능력과 인성을 중요하게 평가하기 때문에 면접이나 실기 시험에서 좋은 점수를 받는 것이 중요합니다.
+3. **추천서나 자소서**: 추천서나 자기소개서 등에서 자신의 열정과 적합성, 그리고 미래 계획을 잘 표현하는 것이 도움이 될 수 있습니다.
+4. **추가 지원자료**: 학교생활기록부 외에 추가로 제출해야 하는 서류들이 있는지 확인하고 준비해야 합니다.
+5. **경쟁률 및 모집인원**: 간호학과의 경쟁률이 높으므로, 충원 합격자 수와 지원자의 수를 고려하여 합격 가능성을 판단해야 합니다.
+6. **추천사**: 교사나 지도교사의 추천서가 있다면 이를 활용할 수 있습니다.
+결론적으로 3.7의 성적만으로는 간호학과에 합격하기 어렵다고 볼 수 있지만, 전반적인 지원 자질을 잘 보여주고 면접 등에서 좋은 평가를 받으면 가능성을 높일 수 있습니다. 따라서 추가 준비와 노력이 필요합니다.</t>
+        </is>
+      </c>
+      <c r="D268" t="n">
+        <v>0.6912825703620911</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 2.58이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 간호학과의 정시 모집에서 국어+수학+탐구(2개) (가산점 포함) 표준 변환 점수 합 평균은 357.63으로, 이는 성적이 2.58인 경우 상당히 높습니다.
+다음은 간호학과의 정시 모집에 대한 주요 정보입니다:
+1. **모집 인원**: 22명
+2. **지원 인원**: 145명
+3. **경쟁률**: 6.59 (145/22)
+4. **국어+수학+탐구(가산점 포함) 표준 변환 점수 합 평균**: 357.63
+성적이 2.58인 경우, 이는 대략 3등급 정도를 의미합니다. 동의대학교 간호학과의 정시 모집에서 국어+수학+탐구(가산점 포함) 표준 변환 점수 합 평균은 357.63으로, 이 점수가 2.58보다 훨씬 높습니다.
+따라서 성적이 2.58인 경우, 동의대학교 간호학과에 정시 전형으로 합격하기는 매우 어려울 것으로 예상됩니다. 
+이러한 상황에서는 다음과 같은 대안을 고려해볼 수 있습니다:
+1. **학생부 종합전형**: 이전에 언급된 정보에서, 동의대학교는 여러 학생부종합 전형을 운영하고 있으며, 이들 전형은 성적 외에도 다양한 요소를 평가하므로 고려해 볼 만합니다.
+2. **재수 시도**: 성적이 조금 낮더라도 재수를 통해 성적을 향상시키는 방법도 있습니다.
+3. **다른 대학/과 선택**: 동의대학교 간호학과 외에도 다른 대학이나 과정을 고려해 볼 수 있습니다.
+결론적으로, 현재의 성적이 2.58인 경우 동의대학교 간호학과에 정시 전형으로 합격하기는 매우 어려울 것으로 보입니다.</t>
+        </is>
+      </c>
+      <c r="D269" t="n">
+        <v>0.7381433844566345</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 3번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 7번이라면 게임공학과에 예비 합격할 가능성이 낮다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>2024년 입시 일정과 모집인원 등을 고려해보겠습니다.
+1. **모집단위와 모집인원 확인**:
+   - 게임공학과는 ICT융합공과대학에 속합니다.
+   - 게임공학과의 모집인원은 3명입니다 (2024년 예시).
+2. **전형요소 및 성적 산출방법**:
+   - 전형요소 반영비율: 수능 100%, 실기 0%
+   - 성적 산출방법: 국어 + 수학 + 영어 등급점수 + 탐구
+3. **성적 예시 및 점수**:
+   - 예를 들어, 국어 95점 (표준점수), 수학 100점 (표준점수), 영어 4등급 (123점), 탐구 87점 (표준점수)이라면,
+     - 성적 합산 점수 = 95 + 100 + 123 + 87 = 305
+4. **입학 확정 가능성**:
+   - 게임공학과는 모집인원이 3명이고, 수능 성적이 높은 학생들이 많이 지원할 가능성이 있습니다.
+   - 따라서 붙을 확률은 상대적으로 낮지만, 최상위권의 성적을 보유하고 있다면 기회가 있을 수 있습니다.
+5. **추천**:
+   - 정확한 입학 확률을 파악하기 위해서는 해당 학과의 전형요소와 성적 산출방법을 잘 이해하는 것이 중요합니다.
+   - 또한, 다른 모집단위에서도 지원해보는 것을 고려해볼 수 있습니다.
+결론적으로, 게임공학과 예비번호 7번이라면 최상위권의 성적을 보유하고 있다면 붙을 가능성이 있지만, 확실한 것은 아닙니다. 정확한 정보와 전략을 갖추고 지원하시길 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D270" t="n">
+        <v>0.7106449604034424</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 게임공학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.78입니다. 따라서, 현재 정시 등급이 4.16이라면 게임공학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 단, 추가 합격 몇 번을 받을지는 예측하기 어렵습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 게임공학과의 경우, 수능 최종등록자의 경쟁률이 5.33이며, 충원 합격자는 3명입니다.
+수능 성적이 4.16정도라면, 평균적인 경쟁률을 고려할 때 대략적으로 20-30위 안에 들 것으로 예상됩니다. 따라서 추가 합격 가능성이 높아 보이지만, 정확한 확률은 지원자의 전체 성적 분포와 입학사정관의 평가 결과 등 다양한 요인에 따라 달라질 수 있습니다.
+따라서 4.16 정도의 점수로는 충원 합격자(3명)보다 높은 순위를 받을 가능성이 있지만, 정확한 예상 순위는 입학사정관들의 평가 결과와 지원자의 전체 성적 분포에 따라 달라질 수 있습니다. 따라서 최종적인 확률을 파악하기 위해서는 동의대학교 입학처 웹사이트나 전화로 상세 문의를 하는 것이 좋습니다.
+추가적으로, 동의대학교의 정시모집에서 게임공학과는 나군 학생부종합(성인학습자)으로 모집되므로, 학업역량, 전공적합성 등 다양한 평가 요소들이 고려됩니다. 따라서 수능 점수 외에도 지원자의 학교생활기록부와 면접 성과 등을 종합적으로 평가받게 됩니다.
+추천되는 조치:
+1. 동의대학교 입학처 웹사이트를 확인하여 최신 정보를 얻습니다.
+2. 전화로 상담을 받거나, 온라인으로 문의를 하세요.
+3. 게임공학과에 관심 있는 학생들의 성적 분포와 평균 점수를 참고하세요.
+이러한 정보들을 종합적으로 고려하여 지원 계획을 세우시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D271" t="n">
+        <v>0.7527672052383423</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다.
+따라서, 현재 정시 등급이 3.75이라면 경영정보학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 높아보입니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>2024학년도 모집단위의 경우, 경영정보학과에 대한 지원을 위해서는 수능 성적이 중요한 요소 중 하나입니다. 하지만 단순히 수능 점수만으로 결정되는 것은 아닙니다. 다음과 같은 절차와 기준을 고려해야 합니다:
+1. **성적 기준**: 
+   - 2024학년도 모집단위의 경우, 수능 성적이 중요합니다. 예를 들어, 소프트웨어공학과의 경우, 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 317.87였습니다.
+2. **경쟁률**:
+   - 경영정보학과의 경우, 지원 인원이 많을 가능성이 있습니다. 예를 들어, 소프트웨어공학과는 지원 인원이 105명으로 많은 수가 지원할 수 있습니다.
+3. **성적 평균 및 표준 편차**:
+   - 성적의 평균과 표준 편차를 고려해야 합니다. 예를 들어, 소프트웨어공학과의 경우, 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 317.87이고, 표준 편차는 7.35였습니다.
+4. **성적 등급**:
+   - 영어 등급의 평균과 표준 편차도 고려해야 합니다. 예를 들어, 소프트웨어공학과의 경우, 영어 등급의 평균은 3.77이고, 표준 편차는 0.67였습니다.
+5. **개인 성적**:
+   - 개인의 수능 점수가 3.75라는 것은 상대적으로 좋은 성적이지만, 경쟁률과 전체 지원자의 성적 분포를 고려해야 합니다.
+따라서, 단순히 3.75라는 점수만으로 최초 등록자로 확정되는 것은 어렵습니다. 하지만 다음과 같은 방법을 통해 가능성을 높일 수 있습니다:
+- **추가 지원 자료 제출**: 학교생활기록부, 추천서 등을 잘 준비하고 제출합니다.
+- **면접 준비**: 면접에서도 자신의 강점과 지원 동기를 잘 전달할 수 있도록 준비합니다.
+결론적으로, 3.75라는 점수는 좋은 성적입니다만, 경쟁률과 전체 지원자의 성적 분포를 고려해야 하므로 최초 등록자로 확정되는 것은 어렵습니다. 하지만 충분히 가능성을 높일 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D272" t="n">
+        <v>0.666200578212738</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다. 
+따라서, 현재 정시 등급이 4.2이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 즉, 최초합격 가능성은 적습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>4.2라는 점수만으로는 확정적으로 결정하기 어렵습니다. 경영정보학과의 최종 등록자를 보면 다음과 같은 정보가 있습니다:
+- 모집인원: 9명
+- 지원 인원: 95명
+- 경쟁률: 10.56대1
+- 충원 합격 (후보순위): 33명
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 313.13
+- 영어 등급의 평균: 3.25
+이 정보를 바탕으로 다음과 같은 판단을 할 수 있습니다:
+1. 경쟁률이 매우 높습니다 (10대1 이상).
+2. 충원 합격자 수가 많아서 많은 지원자가 선발될 가능성이 있습니다.
+3. 표준 변환 점수 평균이 313.13으로 상당히 높습니다.
+4.2라는 점수는 평균보다 낮은 편입니다. 그러나 최종 등록자 중에는 4점대의 지원자가 있습니다. 따라서 단순히 점수가 낮다고 해서 불가능한 것은 아닙니다.
+추천 사항:
+1. 다른 과도 함께 지원해보는 것이 좋습니다.
+2. 학생부와 면접 준비를 철저하게 하세요.
+3. 추가 지원 자격을 갖춘다면, 다른 전형(예: 실기/실적)도 고려해 보세요.
+결론적으로 4.2점수만으로는 확정적으로 가능하지 않지만, 충분히 도전할 가치가 있습니다.</t>
+        </is>
+      </c>
+      <c r="D273" t="n">
+        <v>0.8109276294708252</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최종등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.31입니다. 따라서, 현재 정시 등급이 5.33이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 경영정보학과의 경우, 수능 전형성적 산출방법은 다음과 같습니다:
+- 국어 표준점수 + 수학 표준점수 + 영어 등급점수 + 탐구 표준점수
+이에 따라 성적이 5.33인 경우는 수능 영역별로 다음과 같이 분석됩니다:
+1. **국어, 수학, 영어, 탐구** 중에서 상위 4개 영역의 점수를 합산합니다.
+2. 5.33은 대략적으로 수능 등급이 5등급 정도입니다. 
+3. 5등급의 경우 등급점수가 약 107점 정도 됩니다.
+따라서, 5.33이라는 성적만으로는 확실한 합격을 보장하기 어렵습니다. 경쟁률과 모집인원 등을 고려하면 다음과 같은 점수대가 필요할 것으로 예상됩니다:
+- 평균적인 경쟁률은 4:1 정도로 추정되므로, 약 300점 이상이 필요할 수 있습니다.
+- 최소 합격선은 280점 이상으로 보입니다.
+따라서, 5.33이라는 점수만으로는 불확실성이 크며, 다른 영역의 성적도 고려해야 합니다. 
+추가적으로:
+1. **국어와 수학**의 표준점수가 중요합니다.
+2. **탐구 영역**에서 좋은 성적이 필요합니다.
+따라서, 5.33이라는 점수로는 합격 가능성이 낮다고 볼 수 있습니다. 더 높은 국어/수학 점수와 탐구 영역의 성적을 보유하고 있다면 더 큰 가능성이 있을 것입니다. 
+결론적으로, 현재 정보만으로는 확실한 답변을 드리기 어렵습니다. 정확한 합격 가능성을 확인하려면 동의대학교 입학처 웹사이트나 전화로 문의하시는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="D274" t="n">
+        <v>0.760505199432373</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>바이오응용공학부의 최초등록자 데이터를 기준으로 보면, 바이오응용공학부의 영어 등급 평균은 3.82이고, 수능 4개 영역 등급 평균은 4.74입니다. 
+따라서, 현재 정시 등급이 3.33이라면 바이오응용공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 바이오응용공학부의 경우, 수능 전형성적 산출방법은 다음과 같습니다:
+- 국어 표준점수 + 수학 표준점수 + 영어 등급점수 + 탐구 표준점수
+주요 성적 데이터를 보면:
+- 지원 인원: 238명
+- 모집인원: 99명
+- 경쟁률: 약 2.40
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 284.86
+- 영어 등급의 평균: 4.53
+성적 3.33은 영어 등급으로 대략 B등급 정도입니다.
+이러한 데이터를 바탕으로 다음과 같은 결론을 내릴 수 있습니다:
+1. **영어 점수**: 지원자님의 영어 점수가 B등급이라면, 이는 평균보다 약간 낮은 수준입니다. 하지만 경쟁률이 2.40이고 모집인원이 많아서, 영어 점수만으로는 합격 가능성은 낮지만 여전히 가능합니다.
+2. **국어 + 수학 + 탐구**: 평균 점수가 284.86이며, 지원자님의 국어 + 수학 + 탐구(2개) 표준 변환 점수 합이 이보다 낮다면, 경쟁력을 높이는 것이 중요합니다.
+3. **전반적인 평가**: 동의대학교는 전반적으로 성적과 영어 등급을 중시하지만, 경쟁률이 상대적으로 낮은 편입니다. 따라서 지원자님의 경우에도 합격 가능성은 있지만, 다른 지원자의 성적이 높다면 어려울 수 있습니다.
+결론적으로, 3.33이라는 영어 점수는 약간 부족하지만, 여전히 가능성이 있습니다. 그러나 경쟁력을 높이기 위해 국어 + 수학 + 탐구의 점수가 더 높아져야 합니다. 또한 지원자의 전반적인 성적과 활동 등이 중요하므로, 모든 자료를 잘 준비하고 제출하는 것이 중요합니다.
+추가적으로, 동의대학교 입학처 웹사이트나 학교 관계자에게 직접 문의하여 최신 정보와 더 구체적인 조언을 받는 것도 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D275" t="n">
+        <v>0.7918598651885986</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 4.4이라면 방사선학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>2024학년도에 방사선학과를 지원하려면 몇 가지 정보가 필요합니다:
+1. **방사선학과의 모집단위와 모집인원**: 현재 제공된 정보에서 방사선학과의 모집단위와 모집인원이 명시되어 있지 않습니다. 해당 학과의 모집단위와 모집인원을 확인해야 합니다.
+2. **성적 평균 및 등급 분포**:
+   - 4.4등급은 현재 성적이지만, 방사선학과는 특정 과목(특히 수학)에 대한 요구사항이 있을 수 있습니다.
+   - 일반학생전형의 경우, 수능 점수와 등급뿐만 아니라 학교생활기록부 등의 평가도 이루어집니다.
+3. **수능 성적**:
+   - 방사선학과는 주로 과학 관련 지식이 필요하므로 수학과 과학 영역의 성적이 중요할 것입니다.
+   - 예를 들어, 수능 수학(미적분 또는 기하)과 과학탐구 영역의 성적이 높아야 할 가능성이 있습니다.
+4. **전형 요소**:
+   - 일반학생전형은 종합적인 평가를 통해 학생을 선발하기 때문에, 단순히 등급만으로 결정되는 것이 아닙니다.
+   - 학교생활기록부, 면접 등의 결과도 고려됩니다.
+5. **모집요강 확인**:
+   - 방사선학과의 모집요강을 꼭 확인해보세요. 특정 과목의 성적 요구사항이나 추가적인 평가 요소가 명시되어 있을 수 있습니다.
+   - 입학처 홈페이지나 해당 대학의 공지사항을 통해 최신 정보를 얻으세요.
+6. **추천**:
+   - 현재 성적이 방사선학과에 충분한지 판단하기 위해서는 해당 학과의 모집요강을 철저히 분석해야 합니다.
+   - 가능하다면 입학처나 관련 교수님에게 상담을 받으시는 것도 도움이 될 수 있습니다.
+따라서, 현재의 4.4등급만으로 방사선학과에 확실하게 지원할 수 있는 것은 아닙니다. 모집요강과 성적 분석을 통해 최종 결정을 내리는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D276" t="n">
+        <v>0.7010133862495422</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 2.66이라면 이는 귀하의 성적이 평균보다 높음을 의미합니다. 따라서, 귀하는 방사선학과에 합격할 가능성이 있다고 볼 수 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>2024학년도 방사선학과의 경쟁률과 합격 점수를 고려해보면, 평균적인 지원자들의 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합은 338.76으로 보입니다. 이에 비춰볼 때, 2.66이라는 점수는 약간 낮은 편이므로 위험할 수 있습니다.
+다만, 정시모집의 경우 여러 요소가 고려되므로 다음과 같은 점들을 고려해보세요:
+1. **면접 성적**: 면접에서도 좋은 평점을 받으면 전체적인 경쟁력을 높일 수 있습니다.
+2. **서류평가**: 서류평가에서 학업역량과 전공적합성 등이 잘 반영되어 있으면 도움이 될 수 있습니다.
+3. **추천서 및 자기소개서**: 강력한 추천서나 자기소개서가 있다면 이도 큰 장점이 될 수 있습니다.
+따라서, 2.66이라는 점수는 약간 낮은 편이지만, 다른 평가 요인들을 잘 활용한다면 충분히 경쟁력을 갖출 수 있을 것입니다. 추가적으로 면접 준비와 서류 작성에 신경을 써보시는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="D277" t="n">
+        <v>0.7420921325683594</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>제공된 정보에 따르면, 경찰행정학과의 2024학년도 수능(일반학생전형) 최종등록자 평균 수능 4개 영역 등급은 4.12입니다. 귀하의 성적이 3.66이라면, 이는 평균보다 높은 성적입니다. 
+경쟁률이 2020년도에 비해 낮아졌다는 점도 긍정적인 요소로 작용할 수 있습니다. 경쟁률이 낮아지면 합격 가능성이 상대적으로 높아질 수 있기 때문입니다.
+따라서, 귀하의 성적이 평균보다 높고 경쟁률이 낮아진 점을 고려할 때, 희망을 가져도 될 것으로 보입니다. 다만, 최종 결과는 여러 변수에 따라 달라질 수 있으므로, 최선을 다해 준비하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>3.66의 GPA는 좋은 점수입니다만, 합격 여부는 여러 요소에 따라 결정됩니다. 아래 몇 가지를 고려해보세요:
+1. **전형 유형**: 농어촌 전형은 일반적으로 낮은 성적도 받아들일 수 있는 경향이 있습니다.
+2. **학교 평균 점수**: 지원하는 대학의 전체 학생들의 GPA 평균을 확인해보세요. 이 정보는 대학 웹사이트에서 찾을 수 있습니다.
+3. **전형 요소 비율**:
+   - 서류 평가: 60-70% (학생부, 면접 등)
+   - 실기/실적: 10-40%
+   - 수능: 20-50%
+4. **면접 및 서류 평가**: 학생부와 면접에서 좋은 평가를 받는 것이 중요합니다.
+5. **동점자 처리 기준**: 동점자가 있을 경우, 면접 성적이나 서류 평가 등이 추가로 고려됩니다.
+6. **전공 적합성**: 지원 전공과 관련된 활동이나 경험을 잘 보여줄 수 있어야 합니다.
+7. **추천서 및 기타 서류**: 추천서나 자기소개서 등이 있다면 긍정적인 평가를 받는 것이 도움이 될 수 있습니다.
+8. **지역적 요인**: 농어촌 전형의 특성상 지역적 배려도 고려됩니다.
+현재 정보만으로는 확실한 답변을 드리기 어렵습니다. 하지만 3.66이라는 좋은 성적이 있다면, 합격 가능성은 있습니다. 추가적으로 면접 준비와 서류 작성에 신경 쓰시고, 지원 전공과 관련된 활동이나 경험을 잘 보여주시면 더 높은 확률로 합격할 수 있을 것입니다.
+추가 정보나 자세한 질문이 있으시다면 언제든지 물어보세요.</t>
+        </is>
+      </c>
+      <c r="D278" t="n">
+        <v>0.5440741181373596</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>귀하께서 지원하신 학과에 따라서 합격될 확률은 달라질 수 있습니다.
+2024년 동의대학교 일반학생전형에서 예비 25번 이상이 합격한 학과는 다음과 같습니다.
+- **영어영문학과**
+- **경영정보학과**
+- **e비즈니스학과**
+- **간호학과**
+- **신소재공학과**
+- **고분자나노공학과**
+- **의생명공학과**
+- **바이오의약공학과**
+- **식품공학과**
+- **산업경영빅데이터공학과**
+귀하께서 지원하신 학과가 위 학과에 포함된다면, 귀하께서 합격하실 확률은 있다고 볼 수 있습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>25번의 순위는 동점자 처리 기준에서 상당히 높은 위치입니다. 하지만 붙을 가능성이 완전히 없는 것은 아닙니다. 여러 요인들이 결과에 영향을 미치므로, 다음과 같은 점들을 고려해볼 수 있습니다:
+1. **경쟁률**: 현재의 경쟁률과 지원 인원을 고려하면 25번이 상당히 높은 순위입니다.
+2. **면접 성적**: 면접 평가에서 좋은 성적이 나온다면, 동점자 처리 기준에 따라 더 높은 순위를 받을 수 있습니다.
+3. **서류 평가**: 서류 평가에서도 우수한 점수를 받았다면 이는 긍정적인 요인입니다.
+4. **면접 질문 답변**: 면접에서 지원동기와 학업 계획, 전공적합성 등에 대해 잘 답변했다면 이는 좋은 평가를 받을 수 있습니다.
+5. **출결 및 성적**: 출결과 성적이 우수하다면 이 또한 긍정적인 요인으로 작용할 수 있습니다.
+6. **추천서와 자기소개서**: 추천서나 자기소개서에서 지원자의 적합성을 잘 보여주었다면 이는 추가적으로 긍정적인 평가를 받을 수 있습니다.
+결론적으로, 25번이라는 순위는 높지만, 면접과 서류 평가 등에서 좋은 성적을 얻으면 붙을 가능성이 남아 있습니다. 따라서 최선을 다해 준비하고, 결과를 기다리는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="D279" t="n">
+        <v>0.7815338373184204</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 법경찰행정학부라는 학부는 존재하지않습니다.  
+동의대학교 경찰행정학과의 최종등록자와 최초합격자의 평균 성적을 비교하여 안정권과 문 닫고 들어갈 수 있는 성적을 추정할 수 있습니다.
+- **최종등록자 평균 성적:**
+   - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 332.86
+   - 영어 등급: 4.00
+   - 수능 4개 영역 등급: 4.12
+   - 수능 4개 영역 표준 변환 점수 합: 447.86
+- **최초합격자 평균 성적:**
+  - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 330.71
+  - 영어 등급: 3.14
+  - 수능 4개 영역 등급: 3.87
+  - 수능 4개 영역 표준 변환 점수 합: 452.57
+### 안정권과 문 닫고 들어갈 수 있는 성적 추정
+- **경찰행정학과:**
+  - 안정권: 최초합격자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 331점 이상, 수능 4개 영역 표준 변환 점수 합 약 453점 이상)
+  - 문 닫고 들어갈 수 있는 성적: 최종등록자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 333점 이상, 수능 4개 영역 표준 변환 점수 합 약 448점 이상)
+이 성적을 기준으로 준비하시면 안정권 또는 문 닫고 들어갈 수 있는 성적을 받을 수 있을 것입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 법경찰행정학부의 정시 모집에 대한 정보를 바탕으로 추론해보겠습니다.
+1. **전형별 성적 평균**: 
+   - 나군 수능(일반학생전형)에서 전형요소 반영비율은 100%로, 수능 점수만 반영됩니다.
+   - 나군 실기/실적(일반학생전형)에서는 수능이 30%, 실기가 70%를 차지합니다.
+2. **정원 내 모집인원**: 
+   - 나군 일반 학생은 17명입니다.
+3. **성적 평균 추정**:
+   - 법경찰행정학부는 경쟁률이 높은 학과 중 하나로 알려져 있습니다.
+   - 최근 몇 년간의 입시 결과를 참고하면, 안정적인 합격을 위해서는 90점 이상의 수능 점수를 받는 것이 일반적입니다.
+4. **문 닫고 들어갈 확률**:
+   - '문 닫고 들어가기'는 정시 모집이 마감된 후에도 학생부종합전형 등 다른 전형을 통해 입학할 수 있다는 의미입니다.
+   - 이 경우, 평균 80점 이상의 수능 점수를 받으면 안정적인 입학 가능성이 높습니다.
+따라서, 법경찰행정학부에 정시로 들어갈려면:
+- **안정권**: 90점 이상의 수능 점수를 받는 것이 좋습니다.
+- **문 닫고 들어가기**: 80점 이상의 수능 점수를 받으면 안전한 입학 가능성이 높아집니다.
+이러한 추론은 최근의 입시 경향과 동의대학교의 전형 특성을 고려한 것입니다. 실제 성적은 학생들의 개인적인 성장세, 교사 평가 등 다양한 요인에 따라 달라질 수 있으므로, 최종 결정을 내릴 때는 여러 정보를 종합적으로 고려해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D280" t="n">
+        <v>0.7668851613998413</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>24학년도 모집단위에서 보육가정상담학과에서 아동학과로 변경되었습니다. 아동학과에 대해서 대답을 해드리겠습니다.
+	아동학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+	따라서, 현재 정시 등급이 5.33라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+	자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>2024년도 동의대학교 보육가정상담학과의 경우, 전형 방법은 수능(일반학생전형)으로 알려져 있습니다. 수능 성적 산출 방식은 다음과 같습니다:
+1. **국어 + 수학 + 탐구 (2개 과목) 표준 변환 점수 합**을 사용합니다.
+2. **영어 등급**도 반영됩니다.
+보육가정상담학과는 인문사회과학대학에 속하며, 일반적으로 국어와 영어의 중요성이 높습니다. 
+주요 정보:
+- **국어 + 수학 + 탐구 (2개 과목) 표준 변환 점수 합** 평균: 308.58
+- **영어 등급**: 평균 3.66
+정시 산출 등급이 5.33인 경우, 이는 대략 B등급에 해당합니다.
+### 분석:
+1. **국어 + 수학 + 탐구 (2개 과목) 표준 변환 점수 합**:
+   - 평균은 308.58이고, 표준 편차는 10.96입니다.
+   - 등급이 5.33인 경우, 이는 대략 B등급에 해당합니다.
+2. **영어 등급**:
+   - 평균은 3.66이며, 표준 편차는 1.37입니다.
+   - 등급이 5.33인 경우, 이는 대략 C등급에 해당합니다.
+### 결론:
+- **국어 + 수학 + 탐구 (2개 과목) 표준 변환 점수 합**에서 5.33은 평균보다 약간 낮지만, 표준 편차를 고려하면 상대적으로 좋은 성적입니다.
+- **영어 등급**에서도 C등급은 중간 수준으로, 평균을 밑돌고 있지만, 합격 가능성은 있습니다.
+따라서, 정시 산출 등급이 5.33인 경우, 보육가정상담학과에 합격할 가능성이 있으나, 경쟁률과 지원자들의 성적 분포를 고려하면 확실한 것은 아닙니다. 최종 합격 여부는 여러 요소가综上所述，如果你的英语等级是5.33（大约相当于C级），而国语+数学+选修两科的标准转换分数总和略低于平均值但仍在可接受范围内，那么你有可能被保育与家庭咨询学专业录取。不过，最终能否录取还需考虑其他因素以及竞争情况。
+建议：
+1. 仔细查看最新的招生简章和具体要求。
+2. 参考往年录取分数线和成绩分布。
+3. 如果可能的话，可以咨询学校的招生办公室获取更准确的信息。
+祝你好运！</t>
+        </is>
+      </c>
+      <c r="D281" t="n">
+        <v>0.7851312160491943</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>동의대학교의 충원 합격자 발표 및 등록 일정에 따르면, 충원 합격자 발표는 1차, 2차, 그리고 3차 이후로 나뉘어 진행됩니다. 3차 이후의 충원 합격자 발표는 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보로 이루어집니다.
+예비 12번을 받으셨다면, 앞선 예비 번호를 받은 지원자들이 등록을 포기하거나 다른 대학에 등록하는 경우, 합격 가능성이 있습니다. 충원 합격은 지원자들의 등록 포기 여부에 따라 달라지므로, 정확한 예측은 어렵습니다. 하지만 예비 번호가 12번이라면, 충원 합격 가능성이 아예 없는 것은 아닙니다.
+충원 합격자 발표 기간 동안 전화 통보를 기다리시고, 다른 대학의 등록 상황도 주시하시기 바랍니다. 간절한 마음이 잘 전달되어 좋은 결과가 있기를 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 경우, 충원 합격자 발표 및 등록 일정이 다음과 같습니다:
+- **충원 합격자 3차 발표**: 2024. 02. 15.(목) 09:00
+- **충원 합격자 3차 등록**: 2024. 02. 15.(목) 09:00~16:00
+현재까지의 정보로는 충원 합격자 발표가 진행 중이며, 예비 12번을 받았다는 점에서 합격 가능성은 있습니다. 하지만 최종 합격 여부는 해당 과정의 모집인원과 지원자의 경쟁률 등 다양한 요소에 따라 결정됩니다.
+추가적으로 확인해야 할 사항들은 다음과 같습니다:
+1. **모집인원**: 충원 합격자 3차에서 얼마나 많은 인원이 모집되는지 확인해야 합니다.
+2. **경쟁률**: 이미 발표된 충원 합격자들 중 예비 순위를 살펴보면, 현재의 예비 순위가 어느 위치에 있는지를 파악할 수 있습니다.
+3. **기타 지원자의 성적 및 자료 평가**: 다른 지원자의 서류평가 결과와 실기고사 등록 여부 등을 확인해야 합니다.
+이러한 정보를 종합적으로 고려하여 합격 가능성을 판단하는 것이 좋습니다. 만약 추가적인 정보나 도움이 필요하다면, 동의대학교 입학처 웹사이트 또는 직접 연락을 주시는 것을 추천드립니다. 
+[입학 안내 홈페이지](https://ipsi.deu.ac.kr/main.do)를 참조하여 최신 정보와 자세한 내용을 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D282" t="n">
+        <v>0.9273722171783447</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>정시 성적 4.75로 지원 가능한 학과를 알아보겠습니다. 제공된 데이터에서 최종등록자의 수능 4개 영역 등급 평균을 기준으로 분석해보겠습니다.
+### 지원 가능 학과
+- **국어국문학과**: 4.92 (평균)
+- **중어중국학과**: 5.68 (평균)
+- **일본학과**: 4.87 (평균)
+- **영어영문학과**: 5.16 (평균)
+- **문헌정보학과**: 4.82 (평균)
+- **평생교육·청소년상담학과**: 5.22 (평균)
+- **아동학과**: 7.08 (평균)
+- **금융경영학과**: 5.41 (평균)
+- **재무부동산학과**: 5.82 (평균)
+- **무역학과**: 5.18 (평균)
+- **유통물류학과**: 5.45 (평균)
+- **회계학과**: 4.99 (평균)
+- **국제관광경영학과**: 5.41 (평균)
+- **호텔·컨벤션경영학과**: 6.12 (평균)
+- **외식경영학과**: 4.91 (평균)
+- **의료경영학과**: 5.92 (평균)
+- **식품영양학과**: 5.92 (평균)
+- **기계공학과, 로봇자동화공학과, 자동차공학과**: 6.30 (평균)
+- **조선해양공학과**: 6.16 (평균)
+- **신소재공학과, 고분자나노공학과**: 5.78 (평균)
+- **환경공학과, 화학공학과, 응용화학과**: 5.73 (평균)
+- **의생명공학과, 바이오의약공학과, 식품공학과**: 5.41 (평균)
+- **인간공학과, 제품디자인공학과**: 5.72 (평균)
+- **산업경영빅데이터공학과**: 5.27 (평균)
+- **인공지능학과**: 5.25 (평균)
+- **전기공학과, 전자공학과**: 5.37 (평균)
+- **게임공학과**: 4.78 (평균)
+- **영화학과**: 5.04 (평균)
+### 유아교육학과
+유아교육학과의 경우, 최종등록자의 수능 4개 영역 등급 평균이 4.18로 나타나 있습니다. 따라서, 4.75의 성적으로는 유아교육학과에 지원하기 어려울 것으로 보입니다.
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>4.75라는 국어 수학 탐구 영역의 표준 변환 점수 평균은 상당히 높은 점수입니다. 2024학년도 유아교육학과 모집단위에서 지원하는 경우, 이 성적으로는 충분히 경쟁력을 갖추고 있을 것입니다.
+유아교육학과의 특성상 다음과 같은 점들이 중요합니다:
+1. **인성 및 교육적합성**: 유아교육은 학생들의 인성과 교육적합성이 매우 중요한 요소입니다.
+2. **실무 경험**: 많은 학교에서는 실습 경험이나 관련 활동을 요구하거나 고려합니다.
+3. **학업 성적**: 국어, 수학, 탐구 영역의 성적이 높은 것은 이점이 될 것입니다.
+4.75라는 점수는 대부분의 유아교육학과 지원자들보다 높은 성적을 보여주므로 경쟁력을 갖추고 있을 것입니다. 그러나 유아교육학과는 매우 많은 지원자가 있으며, 이 점수만으로는 확실하게 합격할 수 있는 것은 아닙니다.
+추천 사항:
+1. **면접 준비**: 면접에서는 지원동기와 학업 계획을 이야기해야 합니다.
+2. **서류 제출**: 학교생활기록부, 진로 탐색 활동 등과 관련된 서류를 잘 준비하고 제출합니다.
+3. **추천 및 인적 네트워크**: 가능하다면 교사나 유아교육 관련 업계에서의 추천을 받거나 네트워크를 활용할 수 있습니다.
+4.75라는 점수로는 충분히 경쟁력을 갖추고 있을 것입니다. 그러나 유아교육학과 지원은 많은 요소가 고려되므로, 이 성적만으로는 확실하게 합격할 수 있는 것은 아닙니다.</t>
+        </is>
+      </c>
+      <c r="D283" t="n">
+        <v>0.7616412043571472</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>보육가정상담학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+따라서, 현재 정시 등급이 4.16라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 정시모집에서 보육·가정상담학과의 경우, 2023년도에는 보육·가정상담학과였으나 2024년도에는 아동학과로 변경되었습니다. 따라서 2024년도에 지원하실 때는 아동학과를 대상으로 해야 합니다.
+현재의 학생부 등급이 4.16이라면, 이는 상당히 좋은 점수입니다. 하지만 정시모집에서 합격 여부는 여러 요소가 결합되어 결정되므로 단순히 등급만으로 판단하기 어렵습니다. 아래와 같은 요인들을 고려해보세요:
+1. **경쟁률**: 아동학과의 경쟁률을 확인해야 합니다. 만약 경쟁률이 높다면, 4.16등급은 좋은 점수일 수 있지만 여전히 합격하기 어렵게 될 수도 있습니다.
+2. **모집인원 및 지원자 수**: 모집인원과 지원자의 수를 비교하여 대략적인 경쟁률을 예측할 수 있습니다.
+3. **학생부 평균 등급**: 2024년도의 학생부 평균 등급을 확인하고, 자신의 등급이 평균보다 높은지 낮은지를 판단해야 합니다.
+4. **추천서 및 특기사항**: 추천서나 특기사항 등 추가 자료가 있다면 이들도 중요한 요소로 작용할 수 있습니다.
+5. **수능 성적**: 수능 성적이 좋은 경우, 학생부 등급이 조금 낮더라도 합격 가능성은 높아질 수 있습니다.
+6. **전형별 특성**: 일반학생전형의 경우, 학생부 등급과 수능 성적이 중요한 요소로 작용합니다. 따라서 두 가지 모두 고려해야 합니다.
+참고로, 동의대학교의 정시모집에서 아동학과는 경쟁률이 높을 가능성이 있습니다. 따라서 4.16등급만으로 합격할 수 있을지는 불확실합니다. 하지만 좋은 성적을 가지고 있다면 충분히 합격 가능성은 있으므로, 추가 자료 준비와 면접 등도 철저히 준비하는 것이 좋습니다.
+추가적으로, 동의대학교 입학처 웹사이트(https://ipsi.deu.ac.kr/main.do)를 참조하여 최신 정보와 정확한 데이터를 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D284" t="n">
+        <v>0.7315706014633179</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>아니요. 소프트웨어융합학과는 정시로 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>2024학년도에 소프거우리융합학과를 정시로 지원하려는 경우, 다음과 같은 정보가 도움이 될 것입니다:
+1. **모집단위 및 모집인원**: 
+   - 단과대학: ICT공과대학
+   - 모집단위: 소프트웨어융합학과
+   - 모집 인원: 7명
+2. **경쟁률 및 합격 평균 등급**:
+   - 최종등록자 경쟁률: 4.87 (국내외 학생 모두 포함)
+   - 충원 합격 (후보순위): 63명
+   - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 434.70
+3. **성적 반영 방식**:
+   - 수능 반영 비율: 100%
+   - 반영 영역 및 가산점: 국어(화법과작문 또는 언어와매체) 25% + 수학(확률과통계 또는 미적분 또는 기하) 25% + 영어 25% + 탐구(사회탐구 또는 과학탐구 또는 직업탐구 - 2개 과목 합) 25%
+4. **평균 등급 예상**:
+   - 평균적으로는 국어, 수학, 영어, 탐구 등급 중 상위 등급을 받은 지원자가 경쟁력을 갖추게 됩니다.
+   - 예를 들어, 국어 1등급, 수학 2등급, 영어 3등급, 탐구 4등급 정도의 성적을 받는 것이 일반적인 경향입니다.
+따라서, 소프트웨어융합학과를 정시로 지원하려면 다음과 같은 등급을 목표로 해야 합니다:
+- 국어: 1등급 이상
+- 수학: 2등급 이상
+- 영어: 3등급 이상
+- 탐구: 4등급 이상
+이러한 성적을 기반으로 경쟁력을 갖추고 지원하면 좋은 결과를 얻을 가능성이 높아집니다. 그러나 최종 합격 가능성은 경쟁률, 지원자들의 성적 분포 등 다양한 요인에 따라 달라질 수 있으므로, 정확한 예측은 어렵습니다.</t>
+        </is>
+      </c>
+      <c r="D285" t="n">
+        <v>0.5853268504142761</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과는 서류 평가(공동체 역량, 학업 역량, 전공 적합성)과 면접 고사(400점 만점), 
+	학생부 교과성적을 합쳐서 평가합니다. 
+	준비해야하는 서류와 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과의 경우, 면접 점수와 서류 평가 점수가 각각 중요하게 고려됩니다. 특히 서류 평가는 공동체역량, 학업역량, 전공적합성 등 다양한 영역에서 평가되며, 세특(세부능력 및 특기사항) 내용이 중요한 역할을 합니다.
+### 1. 면접 점수와 서류 평가의 비중
+- **면접 점수**: 40%
+- **서류 평가 점수**: 60%
+따라서, 서류 평가는 전체 점수 중 더 큰 비중을 차지합니다. 따라서 세특 내용을 충분히 준비하고 잘 작성하는 것이 중요합니다.
+### 2. 세특 내용의 중요성
+- **세특 내용**: 이는 지원자의 학업역량과 전공적합성을 보여주는 중요한 부분입니다. 특히, 소프트웨어 관련 활동이나 프로젝트 경험을 자세히 기재해야 합니다.
+### 3. 서류 준비 시 주의사항
+- **정확성**: 세특 내용은 실제 경험이나 활동에 근거해야 합니다. 과장된 내용이나 허위 정보는 부정적 평가를 받을 수 있습니다.
+- **세부적인 설명**: 가능한 한 세부적으로 자신의 활동과 성과를 기재해야 합니다. 단순히 '참여했다'라고만 적지 말고, 어떤 역할을 했으며, 어떤 결과를 얻었는지를 구체적으로 기재해야 합니다.
+### 4. 필요 서류
+- **학교생활기록부**: 이는 학업역량과 전공적합성을 평가하는 중요한 자료입니다.
+- **동아리 활동 및 프로젝트 관련 증빙자료**: 소프트웨어 관련 동아리 활동이나 프로젝트 참여 경력을 증명할 수 있는 자료를 첨부해야 합니다.
+### 5. 참고 자료
+- **면접 질문 공통문항**: 지원동기, 학업역량, 전공적합성 등에 대한 질문이 주어질 수 있으므로, 이에 대해 준비해두는 것이 좋습니다.
+따라서, 세특 내용을 충분히 준비하고 서류를 체계적으로 작성하는 것이 중요합니다. 이를 통해 지원자의 학업역량과 전공적합성을 효과적으로 보여줄 수 있습니다.
+더 궁금한 점이 있으시면 https://ipsi.deu.ac.kr/main.do로 접속하여 자세한 정보를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D286" t="n">
+        <v>0.5984365344047546</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>동의대학교 소프트웨어공학부의 2024학년도 수능(일반학생전형) 최초합격자의 수능 4개 영역 등급 평균은 4.12입니다. 따라서, 4.08의 성적은 최초합격자의 평균 등급보다 약간 높은 수준입니다. 
+	최초합격자의 평균 등급과 비교적 근접한 성적이므로, 최초합격 가능성은 있지만 확실하지는 않습니다. 추가적인 요소나 경쟁률에 따라 결과가 달라질 수 있습니다. 
+	정확한 정보는 동의대학교 입학처에 문의하는 것이 좋습니다. 추가적인 문의는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 ICT융합공과대학 소프트웨어공학부에 대한 정보를 바탕으로 답변 드리겠습니다.
+- **모집인원**: 30명
+- **지원인원**: 146명
+- **경쟁률**: 4.87
+- **충원 합격 (후보순위)**: 63명
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균**: 330.11
+- **영어 등급의 평균**: 3.30
+이 정보를 바탕으로, 지원자의 성적이 4.08이라는 점은 상대적으로 낮습니다. 평균적인 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 330.11이며, 지원자의 성적은 이보다 약간 낮습니다.
+그러나 경쟁률이 높지 않아서, 지원자가 다른 요인들(예: 영어 등급, 수능 4개 영역 등급 등)에서 우수한 점수를 받았다면 가능성이 있을 수 있습니다. 특히, 영어 등급 평균이 3.30이고 지원자의 영어 등급이 높다면 이는 긍정적인 요인이 될 수 있습니다.
+결론적으로, 지원자의 성적이 약간 낮지만, 다른 점수와 학업 역량 등을 고려하면 최초합격 가능성은 있지만 매우 낮습니다. 정확한 확률을 알기 위해서는 동의대학교 입학처 웹사이트나 관련 정보를 확인하는 것이 좋습니다.
+더 자세한 정보나 추가 지원 방법이 필요하시다면, [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do) 를 참조해보세요.</t>
+        </is>
+      </c>
+      <c r="D287" t="n">
+        <v>0.87958824634552</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과의 정시 모집에 대한 구체적인 합격 등급 정보는 제공된 Context에 포함되어 있지 않습니다. 소프트웨어융합학과는 나군 학생부종합(조기취업형계약학과전형)으로도 모집하며, 이 경우 서류 60%와 면접 40%의 비율로 전형요소를 반영합니다.
+정확한 합격 가능성을 확인하기 위해서는 해당 학과의 최근 합격자 평균 등급이나 입시 결과를 참고해야 합니다. 이러한 정보는 대학의 입학처 홈페이지나 모집요강에서 확인할 수 있습니다. 추가적인 정보가 필요하다면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>2024학년도에 소프트웨어융합학과의 경우, 최종 등록자와 최초 합격자의 평균 성적을 살펴보면 다음과 같습니다:
+- **최종 등록자**:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 317.87
+  - 영어 등급의 평균: 3.77
+  - 수능 4개 영역 등급의 평균: 4.49
+- **최초 합격자**:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 330.11
+  - 영어 등급의 평균: 3.30
+  - 수능 4개 영역 등급의 평균: 4.12
+이러한 데이터를 바탕으로, 소프트웨어융합학과에 지원하려면 대략적으로 5등급 정도는 필요할 것으로 보입니다. 하지만 정확한 합격 가능성을 판단하기 위해서는 여러 요인을 고려해야 합니다:
+1. **경쟁률**: 경쟁률이 높다면, 평균 점수가 더 높아질 수 있습니다.
+2. **개별 지원자의 성적 분포**: 일부 지원자가 매우 높은 점수를 받았을 수도 있습니다.
+3. **전형 방식 및 평가 기준**: 서류평가와 면접 등 다른 평가 요소도 중요한 역할을 합니다.
+따라서, 5등급으로는 가능성이 있지만 확실한 합격을 보장받기 위해서는 더 높은 점수를 받는 것이 좋습니다. 또한, 지원 전에 입학사정관의 면접 및 서류 평가 기준 등을 꼼꼼히 확인하는 것이 중요합니다.
+추가 정보나 자세한 조언이 필요하시다면, [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do)를 참조해보시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="D288" t="n">
+        <v>0.7195598483085632</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>정확한 답변을 위해서는 더 많은 정보가 필요하지만, 제공된 데이터를 바탕으로 대략적인 판단을 할 수 있습니다.
+### 신소재공학과, 분자나노공학과 (공과대학) - 2024학년도
+- **최초합격자 평균 수능 4개 영역 등급**: 5.32
+- **최종등록자 평균 수능 4개 영역 등급**: 5.78
+### 귀하의 성적
+- **수능 4개 영역 등급**: 4.28
+귀하의 성적이 신소재공학과의 최초합격자와 최종등록자의 평균 등급보다 높습니다. 따라서, 동의대학교 신소재공학과에 합격할 가능성이 높다고 판단됩니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>4.28이라는 영어 등급은 대략 4등급 정도로 추정됩니다. 동의대학교 신소재공학과의 경우, 지원자의 성적 분포를 보면 다음과 같습니다:
+- 모집 인원: 56명
+- 지원 인원: 81명
+- 경쟁률: 1.45
+- 충원 합격 (후보순위): 25명
+수능 4개 영역 등급의 평균은 5.06이며, 표준 편차는 1.22입니다.
+당신이 제시한 성적(국어 + 수학 + 탐구 + 영어 = 4.28)은 평균보다 약간 낮습니다. 그러나 경쟁률이 1.45로 낮고, 지원 인원도 많지 않기 때문에 여전히 충분히 가능성이 있습니다.
+특히, 동의대학교는 전형 방법에 따라 다양한 요소를 고려하기 때문에, 학업태도나 활동 경험이 좋은 경우에도 유리할 수 있습니다. 따라서 다음과 같은 점들을 확인해 보시는 것이 좋습니다:
+1. **전공적합성**: 신소재공학과와 관련된 활동이나 경험을 많이 가지고 있는지.
+2. **학업역량**: 학교생활에서 뛰어난 성적을 유지하고, 수업에 적극적으로 참여하는 등 좋은 학업태도를 보였는지.
+3. **공동체역량**: 협력적인 태도와 공동체 활동에 참여한 경험이 있는지.
+이러한 요소들이 잘 반영되어 있다면, 4.28이라는 성적에도 불구하고 충분히 합격할 수 있습니다. 하지만 확실한 것은 아니므로, 최종 결정을 내리기 전까지는 계속해서 준비를 해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D289" t="n">
+        <v>0.7576805353164673</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>아니요. 수능 일반학생전형은 자기소개서가 필요없습니다.</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교의 수능 일반학생전형에서는 자기소개서가 필수적으로 요구되는 것은 아닙니다. 
+- **나군 수능(일반학생전형)**:
+  - 모집단위 중 디자인조형학과, 체육학과는 실기고사 결과를 반영하므로 자기소개서가 필요하지 않습니다.
+  - 나머지 모집단위에서는 자기소개서 제출이 요구되지 않으나, 일부 학과에서 서류평가 영역에 포함될 수 있으니 해당 학과의 전형요소 반영비율을 확인해보세요.
+- **가군 수능(일반학생전형)**:
+  - 모든 모집단위에서는 자기소개서 제출이 요구되지 않습니다. 
+따라서, 일반적으로 수능 일반학생전형으로 지원할 때는 자기소개서를 작성하지 않아도 됩니다. 하지만 서류평가 영역에 포함될 수 있으므로 해당 학과의 전형요소 반영비율을 확인하고 필요하다면 준비해두는 것이 좋습니다.
+자세한 내용은 동의대학교 입학처 웹사이트 (https://ipsi.deu.ac.kr/main.do)를 참조하시거나 직접 문의하시는 것이 가장 정확합니다.</t>
+        </is>
+      </c>
+      <c r="D290" t="n">
+        <v>0.6384555101394653</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>동의대학교의 수능 정시 모집에서 합격 가능성을 평가하기 위해서는 각 학과의 평균 등급과 표준 편차를 참고하는 것이 중요합니다. 제공된 데이터에 따르면, 각 학과의 수능 4개 영역 등급 평균과 표준 편차가 나와 있습니다. 
+예를 들어, 인문사회과학대학의 국어국문학과의 경우, 최초 합격자의 수능 4개 영역 등급 평균은 4.65이고, 최종 등록자의 경우 4.92입니다. 
+따라서, 수능 4개 영역 등급이 4.5라면, 일부 학과에서는 합격 가능성이 있을 수 있습니다. 그러나, 각 학과마다 요구하는 등급이 다르므로, 지원하고자 하는 학과의 평균 등급과 비교해보는 것이 중요합니다.
+추가 모집의 경우, 경쟁률이 낮아질 수 있으므로 합격 가능성이 높아질 수 있습니다. 하지만, 추가 모집에 대한 정보는 학교의 공식 홈페이지나 입학처에 문의하는 것이 가장 정확합니다.
+자세한 사항은 동의대학교 입학처에 문의하시기 바랍니다. 추가 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 수능 정시 모집에서 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균과 경쟁률 등을 고려해보겠습니다.
+1. **한의예과 수학(미적분/기하)**:
+   - 지원 인원: 88명
+   - 모집 인원: 11명
+   - 경쟁률: 8.00
+   - 충원 합격 (후보순위): 12명
+   - 평균 점수: 399.33
+2. **한의예과 수학(확률과통계)**:
+   - 지원 인원: 21명
+   - 모집 인원: 3명
+   - 경쟁률: 7.00
+   - 충원 합격 (후보순위): 0명
+   - 평균 점수: 396.29
+3. **공과대학 기계공학과, 로봇자동화공학과, 자동차공학과**:
+   - 지원 인원: 81명
+   - 모집 인원: 56명
+   - 경쟁률: 1.45
+   - 충원 합격 (후보순위): 25명
+4. **공과대학 신소재공학과, 분자나노공학과**:
+   - 지원 인원: 81명
+   - 모집 인원: 56명
+   - 경쟁률: 1.45
+   - 충원 합격 (후보순위): 25명
+5. **인문사회과학대학 경찰행정학과**:
+   - 지원 인원: 29명
+   - 모집 인원: 7명
+   - 경쟁률: 4.14
+   - 충원 합격 (후보순위): 7명
+6. **상경대학 금융경영학과**:
+   - 지원 인원: 58명
+   - 모집 인원: 30명
+   - 경쟁률: 1.93
+   - 충원 합격 (후보순위): 22명
+7. **상경대학 재무부동산학과**:
+   - 지원 인원: 16명
+   - 모집 인원: 10명
+   - 경쟁률: 1.60
+   - 충원 합격 (후보순위): 4명
+8. **상경대학 무역학과**:
+   - 지원 인원: 36명
+   - 모집 인원: 19명
+   - 경쟁률: 1.89
+   - 충원 합격 (후보순위): 13명
+9. **상경대학 유통물류학과**:
+   - 지원 인원: 16명
+   - 모집 인원: 12명
+   - 경쟁률: 1.33
+   - 충원 합격 (후보순위): 4명
+10. **상경대학 경영학과**:
+    - 지원 인원: 65명
+    - 모집 인원: 15명
+    - 경쟁률: 4.33
+    - 충원 합격 (후보순위): 9명
+**결론**: 수능 점수 4.5는 평균보다 낮은 점수입니다. 추가모집이나 재입학 등에서 들어갈 확률은 상당히 낮습니다.
+만약 추가모집이든 해서 들어가고 싶다면, 해당 학과의 충원 합격자 명단을 확인하고, 자신의 점수가 충원 합격자 명단에 포함되어 있는지 확인해보는 것이 좋습니다. 또한, 동의대학교 입학관리팀에 문의하여 자세한 정보를 얻어보시는 것도 도움이 될 것입니다.
+추가로, 동의대학교에서는 정시 모집뿐만 아니라 추가모집도 진행합니다. 따라서, 추가모집이나 재입학 등에서 들어갈 확률은 상당히 낮습니다.</t>
+        </is>
+      </c>
+      <c r="D291" t="n">
+        <v>0.7790068387985229</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>신소재학과의 최종등록자 데이터를 기준으로 보면, 신소재공학과의 영어 등급 평균은 5.06이고, 수능 4개 영역 등급 평균은 5.78입니다. 
+따라서, 신소재공학과의 평균 등급보다 높은 성적을 가지고 있으시면 합격 가능성이 올라갑니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 신소재공학과와 분자나노공학과의 경우, 수능 최종등록자의 통계를 보면 다음과 같은 정보가 있습니다:
+- 모집인원: 56명
+- 지원인원: 81명
+- 경쟁률: 1.45
+수능 성적 평균:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 271.64
+- 영어 등급의 평균: 5.06
+이 정보만으로 정확한 등급을 예측하기는 어렵지만, 일반적으로 경쟁률이 1.45인 경우 대략 B등급 내외의 성적이 필요할 것으로 추정됩니다.
+하지만 이는 단순 추정이며, 최종 합격 가능성을 결정하는 요소는 수능 점수뿐만 아니라 서류 평가, 면접 등 다양한 요소를 고려해야 합니다. 따라서 정확한 합격 가능성은 동의대학교 입학처 웹사이트나 상담을 통해 확인하시는 것이 가장 좋습니다.
+추가적으로, 동의대학교 입학 홈페이지(https://ipsi.deu.ac.kr/main.do)를 방문하여 최신 정보와 자세한 전형요강을 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D292" t="n">
+        <v>0.7546396255493164</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>작년 동의대학교 신소재공학과의 최종 등록자 평균 표준 변환 점수는 378.15점이었습니다. 따라서, 귀하의 표준점수 447점은 작년 신소재공학과의 평균 점수보다 훨씬 높습니다. 이 점수라면 신소재공학과에 합격할 가능성이 매우 높다고 할 수 있습니다. 
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>2023년 동의대학교 정시에서 신소재공학과의 최종 평균 점수가 작년에 비해 약간 높아진 경우는 다음과 같은 요인들을 고려해야 합니다:
+1. 모집 인원 및 지원 인원 변화:
+- 작년보다 모집 인원이 줄었거나 지원 인원이 늘어난다면 평균 점수가 상승할 수 있습니다.
+2. 입학사정관의 평가 결과:
+- 입학사정관들이 더 높은 점수를 부여한 경우 가능합니다.
+3. 성적 분포 변화:
+- 작년보다 높은 점수대의 지원자가 늘어난다면 평균이 상승할 수 있습니다.
+4. 전형 요소 비중 변경:
+- 서류나 면접 등 다른 평가 요소의 비중이 증가했을 때도 가능합니다.
+5. 입학사정관들의 주관성:
+- 각 입학사정관들이 더 높은 점수를 부여한 경우 평균이 상승할 수 있습니다.
+6. 지원자의 경쟁력 변화:
+- 작년보다 더 강력한 지원자가 많아졌을 수도 있습니다.
+7. 전형 방식 변경:
+- 작년과 다른 전형 방식으로 인해 평균 점수가 달라질 수 있습니다.
+8. 입학사정관의 주관적 판단:
+- 각 입학사정관들이 더 높은 점수를 부여한 경우 가능합니다.
+이러한 요인들을 고려하면 작년보다 약간 높아진 평균 점수가 있을 가능성은 있습니다. 하지만 정확히 예측하기는 어렵습니다. 실제 데이터와 입학사정관들의 판단을 바탕으로 최종적인 결과가 결정됩니다.</t>
+        </is>
+      </c>
+      <c r="D293" t="n">
+        <v>0.7011381983757019</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재공학부(일반학생전형)의 최종등록자 데이터를 바탕으로 판단해보겠습니다.
+	신소재공학부의 최종등록자 평균 성적은 다음과 같습니다:
+	- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 평균 271.64, 표준 편차 19.52
+	- 영어 등급: 평균 5.06, 표준 편차 1.22
+	- 수능 4개 영역 등급: 평균 5.78, 표준 편차 0.49
+	- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 평균 378.15, 표준 편차 21.81
+	귀하의 성적이 4.1~4.2등급대라면, 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높은 편입니다. 특히, 영어 등급과 수능 4개 영역 등급에서 차이가 있을 수 있습니다.
+	따라서, 귀하의 성적이 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높으므로, 합격 가능성은 높습니다. 그러나, 최종 합격 여부는 지원자 전체의 성적 분포와 경쟁률에 따라 달라질 수 있습니다.
+	더 자세한 정보나 상담이 필요하다면, 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>4.3 등급의 성적이 4.1~4.2로 변환된다면, 신소재공학부(신소재공학과, 고분자나노공학과)의 일반학생전형에 합격 가능성은 낮지만, 아직 최종 결정을 내릴 수 있는 단계는 아닙니다.
+신소재공학부의 모집요강을 확인해야 합니다. 주요 요인으로는:
+1. **수능 반영 영역 및 가산점**:
+   - 국어(25%), 수학(25%), 영어(25%), 탐구(25%)
+   - 가산점은 없으나, 수능 수학(미적분 또는 기하) 응시자는 10%의 표준점수를 가산받습니다.
+2. **모집인원 및 경쟁률**:
+   - 신소재공학과: 모집인원이 제한적이므로 경쟁률이 높을 수 있습니다.
+   - 고분자나노공학과: 동일하게 경쟁률이 높을 가능성이 큽니다.
+3. **성적 평균**:
+   - 일반적으로 신소재공학부의 합격자는 4.0 이상의 등급을 보유하고 있습니다.
+   - 4.1~4.2 등급은 경쟁력이 있지만, 최상위권 학생들과는 차이가 있을 수 있습니다.
+4. **추천서 및 자기소개서**:
+   - 추천서와 자기소개서의 품질도 중요한 요인입니다.
+   - 이러한 부분에서 우수한 내용을 작성한다면 점수만으로 떨어지지 않을 수도 있습니다.
+5. **면접 성적**:
+   - 일부 전형에서는 면접 성적이 중요할 수 있으므로, 준비를 철저히 해야 합니다.
+결론적으로, 4.1~4.2 등급의 성적만으로는 확실한 합격을 보장하기 어렵지만, 최선을 다해 지원한다면 기회는 있습니다. 추천서와 자기소개서 작성에 신경 쓰고, 면접 준비도 철저히 해보세요.
+추가적으로, 동의대학교 입학 홈페이지나 입학처에 문의하시면 더 자세한 정보를 얻을 수 있을 것입니다.</t>
+        </is>
+      </c>
+      <c r="D294" t="n">
+        <v>0.7768458724021912</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>동의대학교 인공지능학과의 수능 일반학생전형 최초합격자 성적은 다음과 같습니다:
+- **모집 인원**: 15명
+- **지원 인원**: 24명
+- **경쟁률**: 1.60
+- **충원 합격 (후보순위)**: 5명
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 평균 301.87, 표준 편차 12.38
+- **영어 등급**: 평균 4.13, 표준 편차 0.71
+- **수능 4개 영역 등급**: 평균 4.98, 표준 편차 0.25
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합**: 평균 415.80, 표준 편차 10.49
+이 성적을 참고하여 준비하시기 바랍니다. 추가적인 정보가 필요하면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주세요.</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 인공지능학과 수능 일반학생전형의 최종 등록자들의 성적 정보를 참고해보겠습니다:
+- **모집인원**: 15명
+- **지원인원**: 24명
+- **경쟁률**: 1.60
+- **충원 합격 (후보순위)**: 5명
+**성적 평균 및 표준 편차**:
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균**: 293.11
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 표준 편차**: 14.35
+**영어 등급 및 표준 편차**:
+- **영어 등급 평균**: 4.53
+- **영어 등급 표준 편차**: 0.80
+**수능 4개 영역 등급 평균 및 표준 편차**:
+- **수능 4개 영역 등급 평균**: 5.25
+- **수능 4개 영역 등급 표준 편차**: 0.35
+**수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균 및 표준 편차**:
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균**: 403.85
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 표준 편차**: 15.55
+이러한 성적을 기반으로, 수능 성적이 높은 지원자가 많아 경쟁률이 높습니다. 따라서 좋은 성적을 보유하고 있어야 합니다. 특히 국어, 수학, 탐구 영역에서 높은 점수를 받는 것이 중요합니다.
+더 자세한 정보나 추가 질문이 있으시다면 언제든지 알려주세요!</t>
+        </is>
+      </c>
+      <c r="D295" t="n">
+        <v>0.8443698883056641</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>동의대학교의 정시 성적을 기준으로 5.27의 성적으로 충원 합격(추합)이 가능한지 확인하기 위해서는 각 학과의 최종 등록자 성적을 비교해보아야 합니다. 아래는 각 학과의 수능 4개 영역 등급 평균과 표준 편차를 기준으로 5.27 성적이 충원 합격 가능한지 확인한 결과입니다:
+1. **인문사회과학대학**
+   - 국어국문학과: 평균 4.92, 표준 편차 0.35
+   - 중어중국학과: 평균 5.68, 표준 편차 0.74
+   - 일본학과: 평균 4.87, 표준 편차 0.13
+   - 영어영문학과: 평균 5.16, 표준 편차 0.66
+   - 문헌정보학과: 평균 4.82, 표준 편차 0.33
+   - 평생교육·청소년상담학과: 평균 5.22, 표준 편차 0.29
+   - 아동학과: 평균 7.08, 표준 편차 0.56
+   - 유아교육과: 평균 4.18, 표준 편차 0.25
+   - 광고홍보학과: 평균 4.47, 표준 편차 0.18
+   - 미디어커뮤니케이션학과: 평균 4.29, 표준 편차 0.23
+   - 법학과: 평균 4.27, 표준 편차 0.27
+   - 경찰행정학과: 평균 4.12, 표준 편차 0.18
+   - 소방방재행정학과: 평균 4.43, 표준 편차 0.40
+   - 행정학과: 평균 4.36, 표준 편차 0.33
+   - 사회복지학과: 평균 4.69, 표준 편차 0.23
+2. **상경대학**
+   - 금융경영학과: 평균 5.41, 표준 편차 0.52
+   - 재무부동산학과: 평균 5.82, 표준 편차 1.25
+   - 무역학과: 평균 5.18, 표준 편차 0.50
+   - 유통물류학과: 평균 5.45, 표준 편차 0.52
+   - 경영학과: 평균 4.69, 표준 편차 0.22
+   - 회계학과: 평균 4.99, 표준 편차 0.41
+   - 경영정보학과: 평균 4.31, 표준 편차 0.23
+   - e비즈니스학과: 평균 4.53, 표준 편차 0.36
+   - 국제관광경영학과: 평균 5.41, 표준 편차 0.56
+   - 호텔·컨벤션경영학과: 평균 6.12, 표준 편차 0.77
+   - 외식경영학과: 평균 4.91, 표준 편차 0.28
+3. **의료보건생활대학**
+   - 간호학과: 평균 3.37, 표준 편차 0.29
+   - 임상병리학과: 평균 4.15, 표준 편차 0.12
+   - 치위생학과: 평균 4.18, 표준 편차 0.20
+   - 방사선학과: 평균 3.82, 표준 편차 0.20
+   - 의료경영학과: 평균 5.92, 표준 편차 1.08
+   - 물리치료학과: 평균 3.62, 표준 편차 0.15
+   - 식품영양학과: 평균 5.92, 표준 편차 1.06
+4. **한의과대학**
+   - 한의예과(수학&lt;미적분/기하&gt;): 평균 1.21, 표준 편차 0.09
+   - 한의예과(수학&lt;확률과통계&gt;): 평균 1.20, 표준 편차 0.05
+5. **공과대학**
+   - 기계공학과, 로봇자동화공학과, 자동차공학과: 평균 6.30, 표준 편차 1.1
+   - 조선해양공학과: 평균 6.16, 표준 편차 1.00
+   - 신소재공학과, 분자나노공학과: 평균 5.78, 표준 편차 0.49
+   - 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과: 평균 4.69, 표준 편차 0.25
+   - 환경공학과, 화학공학과, 응용화학과: 평균 5.73, 표준 편차 0.57
+   - 의생명공학과, 바이오의약공학과, 식품공학과: 평균 5.41, 표준 편차 0.65
+   - 인간공학과, 제품디자인공학과: 평균 5.72, 표준 편차 0.73
+   - 산업경영빅데이터공학과: 평균 5.27, 표준 편차 0.43
+6. **ICT융합공과대학**
+   - 컴퓨터공학과: 평균 4.29, 표준 편차 0.16
+   - 소프트웨어공학부: 평균 4.49, 표준 편차 0.30
+   - 인공지능학과: 평균 5.25, 표준 편차 0.35
+   - 전기공학과, 전자공학과: 평균 5.37, 표준 편차 0.60
+   - 디지털콘텐츠학과: 평균 4.47, 표준 편차 0.24
+   - 게임공학과: 평균 4.78, 표준 편차 0.20
+   - 영화학과: 평균 5.04, 표준 편차 0.76
+7. **예술디자인체육대학**
+   - 패션디자인학과: 평균 4.46, 표준 편차 0.31
+위의 정보를 바탕으로, 5.27의 성적으로 충원 합격이 가능한 학과는 다음과 같습니다:
+- 인문사회과학대학: 중어중국학과, 영어영문학과, 평생교육·청소년상담학과, 아동학과
+- 상경대학: 금융경영학과, 재무부동산학과, 무역학과, 유통물류학과, 호텔·컨벤션경영학과, 외식경영학과
+- 의료보건생활대학: 의료경영학과, 식품영양학과
+- 공과대학: 기계공학과, 로봇자동화공학과, 자동차공학과, 조선해양공학과, 신소재공학과, 분자나노공학과, 환경공학과, 화학공학과, 응용화학과, 의생명공학과, 바이오의약공학과, 식품공학과, 인간공학과, 제품디자인공학과, 산업경영빅데이터공학과
+- ICT융합공과대학: 인공지능학과, 전기공학과, 전자공학과, 영화학과
+위 학과들은 5.27의 성적으로 충원 합격이 가능할 것으로 보입니다. 더 자세한 정보는 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>5.27이라는 수능 등급은 상당히 높은 점수입니다. 각 단과대학 및 모집단위별로 수능 반영 방식이 다르므로, 정확한 판단을 위해서는 해당 단과대학의 모집요강을 확인해야 합니다.
+일반적으로 동국대학교의 경우, 수능 성적 반영 방식은 다음과 같습니다:
+1. **전반적인 경향**: 대부분의 단과대학에서는 국어(화법과작문 or 언어와매체) / 수학(확률과통계 or 미적분 or 기하) / 영어 / 탐구(사회탐구 or 과학탐구 or 직업탐구 중 2개 과목)의 등급을 반영합니다. 각 영역별로 25%씩 총 100%를 합산하여 평가합니다.
+2. **수능 성적 평균**: 예를 들어, 특정 단과대학에서 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균이 300 이상이라면, 5.27 등급은 상당히 높은 성적입니다.
+3. **모집단위별 차이**: 일부 단과대학이나 모집단위에서는 특정 영역에 더 중점을 두고 있을 수 있으므로, 해당 단과대학의 정확한 평균 점수와 표준 편차를 확인해야 합니다.
+4. **경쟁률 및 지원자 수**: 경쟁률이 높은 학과나 모집단위에서는 5.27 등급으로도 충분히 합격할 수 있지만, 경쟁률이 낮은 곳에서는 더 높은 점수를 요구할 수도 있습니다.
+따라서, 정확한 판단을 위해서는:
+1. **해당 단과대학의 모집요강 확인**: 각 단과대학 및 모집단위별로 수능 반영 방식이 다르므로, 해당 단과대학의 모집요강을 꼭 확인해야 합니다.
+2. **최근 입학 결과 확인**: 과거 입학 결과를 참고하여 현재 지원 가능한 학과나 모집단위를 파악할 수 있습니다.
+추후에 더 구체적인 정보가 필요하시다면, 동국대학교 입학처 웹사이트(https://ipsi.deu.ac.kr/main.do)를 참조하거나 직접 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D296" t="n">
+        <v>0.7230048179626465</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>소프트웨어공학부의 최종등록자 데이터를 기준으로 보면, 소프트웨어공학부의 영어 등급 평균은 3.77이고, 수능 4개 영역 등급 평균은 4.49입니다. 
+따라서, 현재 정시 등급이 4.2라면 소프트웨어공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 소프트웨어공학부에 지원하려면, 정시 모집단위와 경쟁률, 지원자들의 성적 분포를 고려해야 합니다. 주요 정보는 다음과 같습니다:
+1. **소프트웨어공학부 모집인원 및 지원자 수**:
+   - 2024학년도 모집 인원: 30명
+   - 지원 인원: 146명
+2. **경쟁률**:
+   - 경쟁률은 4.87입니다.
+3. **성적 평균 및 분산**:
+   - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 330.11
+   - 표준 편차: 9.08
+4. **영어 등급**:
+   - 영어 등급 평균: 3.30
+   - 표준 편차: 0.82
+5. **수능 4개 영역 등급 평균 및 분산**:
+   - 수능 4개 영역 등급 평균: 4.12
+   - 표준 편차: 0.32
+6. **최초합격자 성적 분석**:
+   - 최초합격자의 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 330.11이며, 이는 동의대학교 소프트웨어공학부의 평균 성적과 비슷합니다.
+7. **성적 비교**:
+   - 당신이 제시한 성적(4.2)은 평균보다 약간 낮지만, 경쟁률이 높고 지원자가 많기 때문에 여전히 가능성이 있습니다.
+   - 특히, 수능 4개 영역 등급 평균이 4.12로 비교적 낮아서, 이 부분에서 우수한 성적이 있다면 도움이 될 수 있습니다.
+**결론**: 
+- 동의대학교 소프트웨어공학부는 경쟁률이 높고 지원자가 많지만, 당신의 성적(4.2)은 평균보다 낮지 않으므로 가능성이 있지만, 확실한 것은 아닙니다.
+- 추가적으로 수능 4개 영역 등급이나 다른 특기사항 등을 잘 준비하고, 면접에서도 좋은 모습을 보여야 합니다.
+추가 정보나 자세한 조언이 필요하시면 [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do)를 참조하거나 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D297" t="n">
+        <v>0.8010183572769165</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>화학환경공학부의 최종등록자 데이터를 기준으로 보면, 화학환경공학부의 영어 등급 평균은 4.82이고, 수능 4개 영역 등급 평균은 5.73입니다. 
+따라서, 현재 정시 등급이 3.92라면 화학환경공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>3.92라는 점수를 가지고 화학환경공학부(화학공학과, 환경공학과, 응용화학과)의 일반학생전형에 지원 가능한지 판단하기 위해서는 몇 가지 요소들을 고려해야 합니다.
+1. **성적 산출 방법**: 
+   - 화학환경공학부의 경우 수능 4개 영역(국어, 수학, 영어, 탐구) 중 표준점수 및 등급점수 상위 3개 영역의 표준점수 및 등급점수를 합산한 점수 ÷ 2로 산출합니다.
+2. **성적 평균과 편차**:
+   - 제공된 데이터에서 화학환경공학부의 정원 내 모집 인원에 대한 성적 정보가 있습니다.
+     - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 378.15이며, 표준 편차는 21.81입니다.
+3. **성적 분포**:
+   - 평균이 378.15이고 표준 편차가 21.81이라는 점에서, 3.92라는 점수는 상당히 낮은 수치로 보입니다.
+   - 이 점수가 실제 성적 산출 점수인 경우, 지원 가능성이 매우 낮습니다.
+4. **경쟁률**:
+   - 화학환경공학부의 모집 인원과 지원 인원을 고려하면 경쟁률이 높아 보입니다.
+     - 정원 내 모집 인원: 62명
+     - 지원 인원: 122명 (경쟁률 1.97)
+따라서, 3.92라는 점수로는 화학환경공학부의 일반학생전형에 충분한 경쟁력을 갖추기 어렵다고 판단됩니다.
+**추천 조치**:
+- 실제 성적 산출 점수가 정확한지 확인하세요.
+- 다른 전형(예: 실기/실적, 학생부종합 등)을 고려해보세요.
+- 대학 입시 컨설팅 서비스를 활용하여 상세한 조언을 받으세요.
+더 자세한 정보나 추가 질문이 있으시다면 언제든지 알려주세요.</t>
+        </is>
+      </c>
+      <c r="D298" t="n">
+        <v>0.7063040733337402</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>동의대학교 화학환경공학부의 수능 일반학생전형 최초합격자 데이터를 바탕으로 판단해보겠습니다.
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균: 276.61
+- 영어 등급 평균: 4.70
+- 수능 4개 영역 등급 평균: 5.59
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합 평균: 385.99
+귀하의 성적 4.25는 최초합격자의 평균값보다 높으므로 합격 가능성이 높은 것으로 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 화학공학과(화학공학과, 환경공학과, 응용화학과)는 수능 일반학생전형을 통해 모집하고 있습니다. 성적 산출방법은 다음과 같습니다:
+- 국어 + 수학 + 영어 등급점수 + 탐구 표준점수
+- 또는 (수학(미적분 또는 기하) 응시자는 수학 표준점수 x 0.1 추가)
+당신의 동의대식 정시 성적이 4.25라면, 이는 수능 점수로 환산하면 대략 426-430 정도 됩니다.
+화학환경공학부의 경우 모집인원과 지원 인원이 다음과 같습니다:
+- 화학공학과: 모집인원 15명, 지원인원 24명
+- 환경공학과: 모집인원 15명, 지원인원 24명
+- 응용화학과: 모집인원 15명, 지원인원 24명
+이러한 정보를 바탕으로 다음과 같은 결론을 내릴 수 있습니다:
+1. 경쟁률은 높지 않으나, 정확한 합격 가능성을 판단하기 위해서는 최종 등록자들의 성적 분포와 비교해야 합니다.
+2. 평균적으로 지원자의 성적이 4.25 정도라면 충분히 합격 가능성은 있습니다만, 경쟁률과 지원 인원이 많아서 정확한 예측은 어렵습니다.
+3. 수능 점수를 최대한 높이는 것이 중요하며, 추가적인 실기나 특기사항 등도 고려해야 합니다.
+4. 동의대학교는 실기/실적 전형을 통해 일부 학생들을 선발하기도 하므로, 실기 성적이 좋다면 더 좋은 결과를 얻을 수 있습니다.
+결론적으로 4.25 정도의 성적은 화학환경공학부에 지원하는 데 충분하지만, 최종 합격 여부는 경쟁률과 지원자의 성적 분포 등 다양한 요인에 따라 결정됩니다. 따라서 추가적인 정보 수집과 준비가 필요합니다.</t>
+        </is>
+      </c>
+      <c r="D299" t="n">
+        <v>0.7263755798339844</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>영화학과의 2024학년도 수능(일반학생전형) 최종등록자의 평균 성적을 보면 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 286.77 (표준 편차: 17.29)
+- 영어 등급: 3.66 (표준 편차: 1.24)
+- 수능 4개 영역 등급: 5.04 (표준 편차: 0.76)
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 404.43 (표준 편차: 27.09)
+이를 통해, 귀하의 정시 성적이 4.2정도라면 영화학과에 합격할 가능성이 존재한다고 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>4.0 이상의 수능 점수를 받으셨다면, 영화학과의 경쟁률이 상대적으로 낮은 편이라는 점을 고려할 때 합격 가능성은 있습니다. 하지만 정확한 합격 여부는 여러 요소에 따라 달라질 수 있으므로 다음과 같은 점들을 참고하시기 바랍니다:
+1. **전형 방식**: 영화학과의 경우, 실기/실적 위주 전형일 가능성이 높습니다. 따라서 수능 성적이 좋은 만큼 실기 부분도 잘 준비해야 합니다.
+2. **수능 성적 평균**: 제공된 데이터를 보면, 영화학과의 최종 등록자들의 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 286.77입니다. 이보다 높으신 점수이므로 경쟁력이 있습니다.
+3. **영어 등급**: 영화학과에서는 영어 등급도 고려할 수 있으니, 3.66이라는 평균을 상회하신 점은 장점으로 작용할 수 있습니다.
+4. **실기 성적**: 실기 부분의 성적이 중요합니다. 이 부분에서 좋은 결과를 얻어야 합니다.
+5. **전형 요소 비율**: 영화학과는 실기/실적 위주 전형일 가능성이 높으므로, 실기 성적이 합격에 큰 영향을 미칠 수 있습니다.
+6. **경쟁률**: 현재 제공된 데이터에서 2.20의 경쟁률이 있으니, 이보다 낮은 점수를 받으신 분들도 있을 수 있습니다.
+결론적으로, 수능 성적만으로는 확실한 합격을 보장할 수 없습니다. 실기 성적이 좋다면 합격 가능성은 높아질 것입니다. 따라서 실기를 잘 준비하고, 입학사정관의 평가를 받을 때도 좋은 모습을 보여주셔야 합니다.
+추가적으로, 입학사정관들이 중요하게 볼 수 있는 요소는 창의성과 표현력이므로, 이 부분에서도 자신만의 독특한 점을 잘 부각시켜보세요.</t>
+        </is>
+      </c>
+      <c r="D300" t="n">
+        <v>0.6832242012023926</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답(제출서류 진위 여부 등)
+8. 퇴실</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답 (제출서류 진위 여부 등)
+8. 퇴실
+이 절차는 모든 면접 형태에서 동일하게 적용됩니다.</t>
+        </is>
+      </c>
+      <c r="D301" t="n">
+        <v>0.9914212226867676</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>GPT-4o-mini Average</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D302" t="n">
+        <v>0.7916440442204475</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Google Gemma-2-9b-it Average</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D303" t="n">
+        <v>0.7770287555456161</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct Average</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D304" t="n">
+        <v>0.7754452106356621</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
           <t>Total Average</t>
         </is>
       </c>
-      <c r="B204" t="inlineStr">
+      <c r="B305" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="C204" t="inlineStr">
+      <c r="C305" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="D204" t="n">
-        <v>0.7843363998830318</v>
+      <c r="D305" t="n">
+        <v>0.7813726701339085</v>
       </c>
     </row>
   </sheetData>
